--- a/Paper_results.xlsx
+++ b/Paper_results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26837623f5703f51/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{503F4D39-9D83-430F-9F88-71700F42C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17EBBCF8-9B4E-40EE-AE6C-9DA3ACD8FC98}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{155E4B78-8035-447B-95EE-A94679A36388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974E6351-13DA-47D8-9ED3-95A100456BCE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7172CF4F-AE7D-43D7-B27D-7F468EA79A39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Section 3 Results" sheetId="2" r:id="rId1"/>
+    <sheet name="Section 3 Results Review" sheetId="4" r:id="rId1"/>
     <sheet name="Section 4 Results" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
     <author>Alexandre Giacomelli Leal</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{59D0F96D-32DA-4E8D-878D-BB7157F6EF29}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{95AD42D7-2AF5-4162-8599-8BFA0232D7AA}">
       <text>
         <r>
           <rPr>
@@ -50,15 +50,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
-  <si>
-    <t>Cg (m)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>pcu(Ω/mm².km)</t>
-  </si>
-  <si>
-    <t>Rs (Ω/km)</t>
   </si>
   <si>
     <t>3,582376770583496+0,7067946590924175i</t>
@@ -99,22 +93,10 @@
     <t>Where:</t>
   </si>
   <si>
-    <t>h (m)</t>
-  </si>
-  <si>
-    <t>L (m)</t>
-  </si>
-  <si>
-    <t>Zs is the horizontal electrodes self-impedance (Ω)</t>
-  </si>
-  <si>
     <t>Rp is the horizontal electrodes grounding resistance (Ω)</t>
   </si>
   <si>
     <t>Rf corresponds to the turbine grounding resistance (Ω)</t>
-  </si>
-  <si>
-    <t>L is the length of the horizontal electrode (m)</t>
   </si>
   <si>
     <t>pcu is the resistivity of copper (Ω/mm².km)</t>
@@ -143,18 +125,6 @@
     </r>
   </si>
   <si>
-    <t>Zs_lumped (Ω)</t>
-  </si>
-  <si>
-    <t>Rp_lumped (Ω)</t>
-  </si>
-  <si>
-    <t>Rs_lumped (Ω)</t>
-  </si>
-  <si>
-    <t>Lp_lumped (H)</t>
-  </si>
-  <si>
     <t>INPUT PARAMETERS</t>
   </si>
   <si>
@@ -203,9 +173,6 @@
     <t>AE</t>
   </si>
   <si>
-    <t>L is the length of the horizontal electrode (m).</t>
-  </si>
-  <si>
     <t>ρ is the medium earth resistivity (Ω.m).</t>
   </si>
   <si>
@@ -252,9 +219,6 @@
   </si>
   <si>
     <t>Parameter k survey for the case study.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z`s (Ω/km) </t>
   </si>
   <si>
     <t>ε (F/m)</t>
@@ -377,12 +341,6 @@
     <t>r is the radius of the semi-spherical electrode as the same area of contact with the ground as the turbine foundation (m)</t>
   </si>
   <si>
-    <t>h is the depth of burial of the horizontal electrode (m)</t>
-  </si>
-  <si>
-    <t>Cg is the geometric mean radius of the horizontal electrode (m)</t>
-  </si>
-  <si>
     <t>APE_LPM (%) [Proposed]</t>
   </si>
   <si>
@@ -395,20 +353,60 @@
     <t xml:space="preserve">AE is the absolute expected error caused by mutual coupling between nearby electrodes and modeling of the horizontal electrode through lumped parameter (%) =&gt;  AE = (Rmed_lumped_11.4m - Rmed_wire_10L) / Rmed_wire_10L </t>
   </si>
   <si>
-    <t>APE_LPM (%) [28]</t>
-  </si>
-  <si>
-    <t>|Zmed|(Ω) [28]</t>
+    <t>Rs (Ω)</t>
+  </si>
+  <si>
+    <t>Lp (H)</t>
+  </si>
+  <si>
+    <t>Rp(Ω)</t>
+  </si>
+  <si>
+    <t>μ (H/m)</t>
+  </si>
+  <si>
+    <t>μ is the magnetic permeability of the soil (H/m)</t>
+  </si>
+  <si>
+    <t>Lp is the horizontal electrode indutance (H)</t>
+  </si>
+  <si>
+    <t>d (m)</t>
+  </si>
+  <si>
+    <t>d is the depth of burial of the horizontal electrode (m)</t>
+  </si>
+  <si>
+    <t>l is the length of the horizontal electrode (m)</t>
+  </si>
+  <si>
+    <t>l (m)</t>
+  </si>
+  <si>
+    <t>a (m)</t>
+  </si>
+  <si>
+    <t>a is the geometric mean radius of the horizontal electrode (m)</t>
+  </si>
+  <si>
+    <t>l is the length of the horizontal electrode (m).</t>
+  </si>
+  <si>
+    <t>|Zmed|(Ω) [32]</t>
+  </si>
+  <si>
+    <t>APE_LPM (%) [32]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -531,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -826,19 +824,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -881,9 +904,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,12 +955,6 @@
     <xf numFmtId="11" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,11 +1016,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1059,6 +1068,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,8 +1109,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1099,6 +1118,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,26 +1146,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>139700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2055" name="Object 7" hidden="1">
+            <xdr:cNvPr id="3074" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2055"/>
+                  <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1184,19 +1207,19 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2056" name="Object 8" hidden="1">
+            <xdr:cNvPr id="3075" name="Object 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2056"/>
+                  <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1231,80 +1254,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2057" name="Object 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2057"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>139700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2058" name="Object 10" hidden="1">
+            <xdr:cNvPr id="3077" name="Object 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2058"/>
+                  <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1346,73 +1315,19 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2059" name="Object 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2059"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2060" name="Object 12" hidden="1">
+            <xdr:cNvPr id="3078" name="Object 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2060"/>
+                  <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1479,6 +1394,10 @@
 </file>
 
 <file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1778,11 +1697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014E7EC-159B-42E0-98A3-78DA4C6D2FB2}">
-  <dimension ref="A1:AO33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD07FEA-85F8-457C-996B-0DAB67F5A792}">
+  <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1790,1195 +1709,1151 @@
     <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.26953125" customWidth="1"/>
+    <col min="16" max="16" width="3.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.26953125" customWidth="1"/>
-    <col min="18" max="18" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" customWidth="1"/>
+    <col min="18" max="18" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.90625" customWidth="1"/>
-    <col min="26" max="26" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="41" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.90625" customWidth="1"/>
+    <col min="24" max="24" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="39" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB1"/>
-      <c r="AC1"/>
-    </row>
-    <row r="2" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:41" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1"/>
+      <c r="AA1"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:39" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="85"/>
+    </row>
+    <row r="4" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="80"/>
+    </row>
+    <row r="5" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="88"/>
-    </row>
-    <row r="4" spans="1:41" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="83"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="W5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD5" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE5" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG5" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH5" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI5" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ5" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK5" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL5" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" s="29">
+        <v>300</v>
+      </c>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y5" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC5" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD5" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE5" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF5" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG5" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH5" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI5" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ5" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK5" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL5" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM5" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN5" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO5" s="67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A6" s="31">
-        <v>300</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>100</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>8.854*10^-12*9</f>
         <v>7.968599999999999E-11</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
+        <f t="shared" ref="E6:E9" si="0">4*PI()*10^-7</f>
+        <v>1.2566370614359173E-6</v>
+      </c>
+      <c r="F6" s="6">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="6">
         <v>17.2</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" ref="G6:G10" si="0">E6^2*PI()*1000^2</f>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H10" si="1">F6^2*PI()*1000^2</f>
         <v>95.033177771091232</v>
       </c>
-      <c r="H6" s="9">
-        <f>F6/G6</f>
-        <v>0.18098942288797357</v>
-      </c>
-      <c r="I6" s="61" t="str">
-        <f>IMSUM(IMPRODUCT(COMPLEX(49.3,62.8*LN(93.2*SQRT(C6)/E6)),10^-3),H6)</f>
-        <v>0,230289422887974+0,75613335208976i</v>
-      </c>
-      <c r="J6" s="60">
+      <c r="I6" s="77">
         <f>82.1828/(2*PI())</f>
         <v>13.079798857132616</v>
       </c>
-      <c r="K6" s="37" t="str">
-        <f>IMPRODUCT(I6,A6/1000)</f>
-        <v>0,0690868268663922+0,226840005626928i</v>
-      </c>
-      <c r="L6" s="10">
-        <f>(C6/(PI()*A6))*(LN((2*A6)/(SQRT(2*E6*B6)))-1)</f>
+      <c r="J6" s="74">
+        <f>(C6/(PI()*A6))*(LN((2*A6)/(SQRT(2*F6*B6)))-1)</f>
         <v>0.81188752564345623</v>
       </c>
-      <c r="M6" s="9">
-        <f>C6*D6/L6</f>
+      <c r="K6" s="8">
+        <f>C6*D6/J6</f>
         <v>9.8149063119112904E-9</v>
       </c>
-      <c r="N6" s="10">
-        <f>IMREAL(K6)</f>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="O6" s="56">
-        <f>(IMAGINARY(K6))/(2*PI()*1572)</f>
-        <v>2.2966099355291948E-5</v>
+      <c r="L6" s="9">
+        <f>G6/H6*(A6/1000)</f>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="M6" s="52">
+        <f>(E6*A6)/(2*PI())*(LN(2*A6/F6)-1)</f>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="N6" s="9">
+        <f>C6/(2*PI()*I6)</f>
+        <v>1.2167996223053972</v>
+      </c>
+      <c r="O6" s="8">
+        <f>C6*D6/N6</f>
+        <v>6.5488186007999992E-9</v>
       </c>
       <c r="P6" s="10">
-        <f>C6/(2*PI()*J6)</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q6" s="54">
+        <f>(1/(1/O6+1/K6))*(1-P6)/P6</f>
+        <v>1.6834110124704093E-9</v>
+      </c>
+      <c r="R6" s="16">
+        <f>(N6+(1/(1/(2*J6)+1/(2*J6))))*P6/(1-P6)</f>
+        <v>4.7336033452139903</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="13">
+        <f t="shared" ref="T6:T10" si="2">IMREAL(S6)</f>
+        <v>1.1839069021425199</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" ref="U6:U10" si="3">IMAGINARY(S6)</f>
+        <v>0.42987647063753398</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" ref="V6:V10" si="4">IMABS(S6)</f>
+        <v>1.2595353639134079</v>
+      </c>
+      <c r="W6" s="36">
+        <f>DEGREES(IMARGUMENT(S6))</f>
+        <v>19.955954172832605</v>
+      </c>
+      <c r="X6" s="39">
+        <v>1.968</v>
+      </c>
+      <c r="Y6" s="14">
+        <f>(X6-V6)/V6</f>
+        <v>0.56248094049965747</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>1.3889</v>
+      </c>
+      <c r="AA6" s="23">
+        <f>ABS((Z6-V6)/V6)</f>
+        <v>0.10270822066055607</v>
+      </c>
+      <c r="AB6" s="59">
+        <f>N6*(2-P6)</f>
+        <v>1.5818395089970163</v>
+      </c>
+      <c r="AC6" s="57">
+        <f>O6/(2-P6)</f>
+        <v>5.0375527698461531E-9</v>
+      </c>
+      <c r="AD6" s="56">
+        <f>2*J6*(2-P6)</f>
+        <v>2.1109075666729864</v>
+      </c>
+      <c r="AE6" s="57">
+        <f>K6/(4-2*P6)</f>
+        <v>3.7749639661197268E-9</v>
+      </c>
+      <c r="AF6" s="56">
+        <f>2*J6</f>
+        <v>1.6237750512869125</v>
+      </c>
+      <c r="AG6" s="57">
+        <f>K6/2</f>
+        <v>4.9074531559556452E-9</v>
+      </c>
+      <c r="AH6" s="68">
+        <f>L6</f>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="AI6" s="67">
+        <f>M6</f>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="AJ6" s="58">
+        <f>N6</f>
         <v>1.2167996223053972</v>
       </c>
-      <c r="Q6" s="9">
-        <f>C6*D6/P6</f>
+      <c r="AK6" s="57">
+        <f>O6</f>
         <v>6.5488186007999992E-9</v>
       </c>
-      <c r="R6" s="11">
+      <c r="AL6" s="58">
+        <f>R6</f>
+        <v>4.7336033452139903</v>
+      </c>
+      <c r="AM6" s="61">
+        <f>Q6</f>
+        <v>1.6834110124704093E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="29">
+        <v>300</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>300</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:D10" si="5">8.854*10^-12*9</f>
+        <v>7.968599999999999E-11</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2566370614359173E-6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>95.033177771091232</v>
+      </c>
+      <c r="I7" s="77">
+        <f t="shared" ref="I7:I10" si="6">82.1828/(2*PI())</f>
+        <v>13.079798857132616</v>
+      </c>
+      <c r="J7" s="74">
+        <f>(C7/(PI()*A7))*(LN((2*A7)/(SQRT(2*F7*B7)))-1)</f>
+        <v>2.4356625769303686</v>
+      </c>
+      <c r="K7" s="8">
+        <f>C7*D7/J7</f>
+        <v>9.8149063119112921E-9</v>
+      </c>
+      <c r="L7" s="9">
+        <f>G7/H7*(A7/1000)</f>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="M7" s="52">
+        <f t="shared" ref="M7:M10" si="7">(E7*A7)/(2*PI())*(LN(2*A7/F7)-1)</f>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="N7" s="9">
+        <f>C7/(2*PI()*I7)</f>
+        <v>3.6503988669161918</v>
+      </c>
+      <c r="O7" s="8">
+        <f>C7*D7/N7</f>
+        <v>6.5488186007999992E-9</v>
+      </c>
+      <c r="P7" s="10">
         <v>0.7</v>
       </c>
-      <c r="S6" s="58">
-        <f>(1/(1/Q6+1/M6))*(1-R6)/R6</f>
+      <c r="Q7" s="54">
+        <f t="shared" ref="Q7:Q10" si="8">(1/(1/O7+1/K7))*(1-P7)/P7</f>
         <v>1.6834110124704093E-9</v>
       </c>
-      <c r="T6" s="17">
-        <f>(P6+(1/(1/(2*L6)+1/(2*L6))))*R6/(1-R6)</f>
-        <v>4.7336033452139903</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="V6" s="14">
-        <f t="shared" ref="V6:V10" si="1">IMREAL(U6)</f>
-        <v>1.1839069021425199</v>
-      </c>
-      <c r="W6" s="14">
-        <f t="shared" ref="W6:W10" si="2">IMAGINARY(U6)</f>
-        <v>0.42987647063753398</v>
-      </c>
-      <c r="X6" s="14">
-        <f t="shared" ref="X6:X10" si="3">IMABS(U6)</f>
-        <v>1.2595353639134079</v>
-      </c>
-      <c r="Y6" s="40">
-        <f>DEGREES(IMARGUMENT(U6))</f>
-        <v>19.955954172832605</v>
-      </c>
-      <c r="Z6" s="43">
-        <v>1.4928999999999999</v>
-      </c>
-      <c r="AA6" s="15">
-        <f>(Z6-X6)/X6</f>
-        <v>0.1852783516625704</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>1.1531</v>
-      </c>
-      <c r="AC6" s="25">
-        <f>ABS((AB6-X6)/X6)</f>
-        <v>8.4503672515165093E-2</v>
-      </c>
-      <c r="AD6" s="66">
-        <f>P6*(2-R6)</f>
-        <v>1.5818395089970163</v>
-      </c>
-      <c r="AE6" s="64">
-        <f>Q6/(2-R6)</f>
+      <c r="R7" s="16">
+        <f t="shared" ref="R7:R10" si="9">(N7+(1/(1/(2*J7)+1/(2*J7))))*P7/(1-P7)</f>
+        <v>14.20081003564197</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5823767705834899</v>
+      </c>
+      <c r="U7" s="13">
+        <f t="shared" si="3"/>
+        <v>0.70679465909241701</v>
+      </c>
+      <c r="V7" s="13">
+        <f t="shared" si="4"/>
+        <v>3.6514356103507781</v>
+      </c>
+      <c r="W7" s="36">
+        <f>DEGREES(IMARGUMENT(S7))</f>
+        <v>11.160979443407944</v>
+      </c>
+      <c r="X7" s="39">
+        <v>5.2157999999999998</v>
+      </c>
+      <c r="Y7" s="14">
+        <f>(X7-V7)/V7</f>
+        <v>0.42842447644830295</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>3.8231000000000002</v>
+      </c>
+      <c r="AA7" s="23">
+        <f t="shared" ref="AA7:AA10" si="10">ABS((Z7-V7)/V7)</f>
+        <v>4.7012848634822552E-2</v>
+      </c>
+      <c r="AB7" s="59">
+        <f t="shared" ref="AB7:AB10" si="11">N7*(2-P7)</f>
+        <v>4.7455185269910496</v>
+      </c>
+      <c r="AC7" s="57">
+        <f t="shared" ref="AC7:AC10" si="12">O7/(2-P7)</f>
         <v>5.0375527698461531E-9</v>
       </c>
-      <c r="AF6" s="63">
-        <f>2*L6*(2-R6)</f>
-        <v>2.1109075666729864</v>
-      </c>
-      <c r="AG6" s="64">
-        <f>M6/(4-2*R6)</f>
-        <v>3.7749639661197268E-9</v>
-      </c>
-      <c r="AH6" s="63">
-        <f>2*L6</f>
-        <v>1.6237750512869125</v>
-      </c>
-      <c r="AI6" s="64">
-        <f>M6/2</f>
-        <v>4.9074531559556452E-9</v>
-      </c>
-      <c r="AJ6" s="75">
-        <f>N6</f>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="AK6" s="74">
-        <f>O6</f>
-        <v>2.2966099355291948E-5</v>
-      </c>
-      <c r="AL6" s="65">
-        <f>P6</f>
-        <v>1.2167996223053972</v>
-      </c>
-      <c r="AM6" s="64">
-        <f>Q6</f>
+      <c r="AD7" s="56">
+        <f t="shared" ref="AD7:AD10" si="13">2*J7*(2-P7)</f>
+        <v>6.3327227000189588</v>
+      </c>
+      <c r="AE7" s="57">
+        <f t="shared" ref="AE7:AE10" si="14">K7/(4-2*P7)</f>
+        <v>3.7749639661197277E-9</v>
+      </c>
+      <c r="AF7" s="56">
+        <f t="shared" ref="AF7:AF10" si="15">2*J7</f>
+        <v>4.8713251538607372</v>
+      </c>
+      <c r="AG7" s="57">
+        <f t="shared" ref="AG7:AG10" si="16">K7/2</f>
+        <v>4.907453155955646E-9</v>
+      </c>
+      <c r="AH7" s="68">
+        <f t="shared" ref="AH7:AK10" si="17">L7</f>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="AI7" s="67">
+        <f t="shared" si="17"/>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="AJ7" s="58">
+        <f t="shared" si="17"/>
+        <v>3.6503988669161918</v>
+      </c>
+      <c r="AK7" s="57">
+        <f t="shared" si="17"/>
         <v>6.5488186007999992E-9</v>
       </c>
-      <c r="AN6" s="65">
-        <f>T6</f>
-        <v>4.7336033452139903</v>
-      </c>
-      <c r="AO6" s="68">
-        <f>S6</f>
+      <c r="AL7" s="58">
+        <f t="shared" ref="AL7:AL10" si="18">R7</f>
+        <v>14.20081003564197</v>
+      </c>
+      <c r="AM7" s="61">
+        <f t="shared" ref="AM7:AM10" si="19">Q7</f>
         <v>1.6834110124704093E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A7" s="31">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8" s="29">
         <v>300</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
-        <v>300</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" ref="D7:D10" si="4">8.854*10^-12*9</f>
+      <c r="C8" s="6">
+        <v>5252</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="5"/>
         <v>7.968599999999999E-11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2566370614359173E-6</v>
+      </c>
+      <c r="F8" s="6">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G8" s="6">
         <v>17.2</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="H7" s="9">
-        <f t="shared" ref="H7:H10" si="5">F7/G7</f>
-        <v>0.18098942288797357</v>
-      </c>
-      <c r="I7" s="61" t="str">
-        <f>IMSUM(IMPRODUCT(COMPLEX(49.3,62.8*LN(93.2*SQRT(C7)/E7)),10^-3),H7)</f>
-        <v>0,230289422887974+0,790629777953939i</v>
-      </c>
-      <c r="J7" s="60">
-        <f t="shared" ref="J7:J10" si="6">82.1828/(2*PI())</f>
-        <v>13.079798857132616</v>
-      </c>
-      <c r="K7" s="37" t="str">
-        <f>IMPRODUCT(I7,A7/1000)</f>
-        <v>0,0690868268663922+0,237188933386182i</v>
-      </c>
-      <c r="L7" s="10">
-        <f t="shared" ref="L7:L10" si="7">(C7/(PI()*A7))*(LN((2*A7)/(SQRT(2*E7*B7)))-1)</f>
-        <v>2.4356625769303686</v>
-      </c>
-      <c r="M7" s="9">
-        <f>C7*D7/L7</f>
-        <v>9.8149063119112921E-9</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" ref="N7:N10" si="8">IMREAL(K7)</f>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="O7" s="56">
-        <f>(IMAGINARY(K7))/(2*PI()*1572)</f>
-        <v>2.4013862083400223E-5</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" ref="P7:P9" si="9">C7/(2*PI()*J7)</f>
-        <v>3.6503988669161918</v>
-      </c>
-      <c r="Q7" s="9">
-        <f>C7*D7/P7</f>
-        <v>6.5488186007999992E-9</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="S7" s="58">
-        <f t="shared" ref="S7:S10" si="10">(1/(1/Q7+1/M7))*(1-R7)/R7</f>
-        <v>1.6834110124704093E-9</v>
-      </c>
-      <c r="T7" s="17">
-        <f t="shared" ref="T7:T10" si="11">(P7+(1/(1/(2*L7)+1/(2*L7))))*R7/(1-R7)</f>
-        <v>14.20081003564197</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="14">
-        <f t="shared" si="1"/>
-        <v>3.5823767705834899</v>
-      </c>
-      <c r="W7" s="14">
-        <f t="shared" si="2"/>
-        <v>0.70679465909241701</v>
-      </c>
-      <c r="X7" s="14">
-        <f t="shared" si="3"/>
-        <v>3.6514356103507781</v>
-      </c>
-      <c r="Y7" s="40">
-        <f>DEGREES(IMARGUMENT(U7))</f>
-        <v>11.160979443407944</v>
-      </c>
-      <c r="Z7" s="43">
-        <v>4.4116999999999997</v>
-      </c>
-      <c r="AA7" s="15">
-        <f>(Z7-X7)/X7</f>
-        <v>0.2082097209914065</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>3.4399000000000002</v>
-      </c>
-      <c r="AC7" s="25">
-        <f t="shared" ref="AC7:AC10" si="12">ABS((AB7-X7)/X7)</f>
-        <v>5.7932175977890681E-2</v>
-      </c>
-      <c r="AD7" s="66">
-        <f t="shared" ref="AD7:AD10" si="13">P7*(2-R7)</f>
-        <v>4.7455185269910496</v>
-      </c>
-      <c r="AE7" s="64">
-        <f t="shared" ref="AE7:AE10" si="14">Q7/(2-R7)</f>
-        <v>5.0375527698461531E-9</v>
-      </c>
-      <c r="AF7" s="63">
-        <f t="shared" ref="AF7:AF10" si="15">2*L7*(2-R7)</f>
-        <v>6.3327227000189588</v>
-      </c>
-      <c r="AG7" s="64">
-        <f t="shared" ref="AG7:AG10" si="16">M7/(4-2*R7)</f>
-        <v>3.7749639661197277E-9</v>
-      </c>
-      <c r="AH7" s="63">
-        <f t="shared" ref="AH7:AH10" si="17">2*L7</f>
-        <v>4.8713251538607372</v>
-      </c>
-      <c r="AI7" s="64">
-        <f t="shared" ref="AI7:AI10" si="18">M7/2</f>
-        <v>4.907453155955646E-9</v>
-      </c>
-      <c r="AJ7" s="75">
-        <f t="shared" ref="AJ7:AM10" si="19">N7</f>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="AK7" s="74">
-        <f t="shared" si="19"/>
-        <v>2.4013862083400223E-5</v>
-      </c>
-      <c r="AL7" s="65">
-        <f t="shared" si="19"/>
-        <v>3.6503988669161918</v>
-      </c>
-      <c r="AM7" s="64">
-        <f t="shared" si="19"/>
-        <v>6.5488186007999992E-9</v>
-      </c>
-      <c r="AN7" s="65">
-        <f t="shared" ref="AN7:AN10" si="20">T7</f>
-        <v>14.20081003564197</v>
-      </c>
-      <c r="AO7" s="68">
-        <f t="shared" ref="AO7:AO10" si="21">S7</f>
-        <v>1.6834110124704093E-9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A8" s="31">
-        <v>300</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>5252</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="4"/>
-        <v>7.968599999999999E-11</v>
-      </c>
-      <c r="E8" s="7">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="F8" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>95.033177771091232</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="5"/>
-        <v>0.18098942288797357</v>
-      </c>
-      <c r="I8" s="61" t="str">
-        <f>IMSUM(IMPRODUCT(COMPLEX(49.3,62.8*LN(93.2*SQRT(C8)/E8)),10^-3),H8)</f>
-        <v>0,230289422887974+0,880514845242007i</v>
-      </c>
-      <c r="J8" s="60">
+      <c r="I8" s="77">
         <f t="shared" si="6"/>
         <v>13.079798857132616</v>
       </c>
-      <c r="K8" s="37" t="str">
-        <f>IMPRODUCT(I8,A8/1000)</f>
-        <v>0,0690868268663922+0,264154453572602i</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="J8" s="74">
+        <f>(C8/(PI()*A8))*(LN((2*A8)/(SQRT(2*F8*B8)))-1)</f>
+        <v>42.640332846794323</v>
+      </c>
+      <c r="K8" s="8">
+        <f>C8*D8/J8</f>
+        <v>9.8149063119112904E-9</v>
+      </c>
+      <c r="L8" s="9">
+        <f>G8/H8*(A8/1000)</f>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="M8" s="52">
         <f t="shared" si="7"/>
-        <v>42.640332846794323</v>
-      </c>
-      <c r="M8" s="9">
-        <f>C8*D8/L8</f>
-        <v>9.8149063119112904E-9</v>
-      </c>
-      <c r="N8" s="10">
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="N8" s="9">
+        <f>C8/(2*PI()*I8)</f>
+        <v>63.90631616347946</v>
+      </c>
+      <c r="O8" s="8">
+        <f>C8*D8/N8</f>
+        <v>6.5488186007999992E-9</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="Q8" s="54">
         <f t="shared" si="8"/>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="O8" s="56">
-        <f>(IMAGINARY(K8))/(2*PI()*1572)</f>
-        <v>2.6743948489706221E-5</v>
-      </c>
-      <c r="P8" s="10">
+        <v>1.6834110124704093E-9</v>
+      </c>
+      <c r="R8" s="16">
         <f t="shared" si="9"/>
+        <v>248.60884769063878</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="2"/>
+        <v>59.9192153952228</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="3"/>
+        <v>0.744347052630002</v>
+      </c>
+      <c r="V8" s="13">
+        <f t="shared" si="4"/>
+        <v>59.923838546223529</v>
+      </c>
+      <c r="W8" s="36">
+        <f>DEGREES(IMARGUMENT(S8))</f>
+        <v>0.71172078502610525</v>
+      </c>
+      <c r="X8" s="39">
+        <v>76.08</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>(X8-V8)/V8</f>
+        <v>0.269611591075129</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>60.09</v>
+      </c>
+      <c r="AA8" s="23">
+        <f t="shared" si="10"/>
+        <v>2.7728773357585008E-3</v>
+      </c>
+      <c r="AB8" s="59">
+        <f t="shared" si="11"/>
+        <v>83.078211012523298</v>
+      </c>
+      <c r="AC8" s="57">
+        <f t="shared" si="12"/>
+        <v>5.0375527698461531E-9</v>
+      </c>
+      <c r="AD8" s="56">
+        <f t="shared" si="13"/>
+        <v>110.86486540166524</v>
+      </c>
+      <c r="AE8" s="57">
+        <f t="shared" si="14"/>
+        <v>3.7749639661197268E-9</v>
+      </c>
+      <c r="AF8" s="56">
+        <f t="shared" si="15"/>
+        <v>85.280665693588645</v>
+      </c>
+      <c r="AG8" s="57">
+        <f t="shared" si="16"/>
+        <v>4.9074531559556452E-9</v>
+      </c>
+      <c r="AH8" s="68">
+        <f t="shared" si="17"/>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="AI8" s="67">
+        <f t="shared" si="17"/>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="AJ8" s="58">
+        <f t="shared" si="17"/>
         <v>63.90631616347946</v>
       </c>
-      <c r="Q8" s="9">
-        <f>C8*D8/P8</f>
+      <c r="AK8" s="57">
+        <f t="shared" si="17"/>
         <v>6.5488186007999992E-9</v>
       </c>
-      <c r="R8" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="S8" s="58">
-        <f t="shared" si="10"/>
+      <c r="AL8" s="58">
+        <f t="shared" si="18"/>
+        <v>248.60884769063878</v>
+      </c>
+      <c r="AM8" s="61">
+        <f t="shared" si="19"/>
         <v>1.6834110124704093E-9</v>
       </c>
-      <c r="T8" s="17">
-        <f t="shared" si="11"/>
-        <v>248.60884769063878</v>
-      </c>
-      <c r="U8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="14">
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A9" s="29">
+        <v>300</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10240</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="5"/>
+        <v>7.968599999999999E-11</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2566370614359173E-6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>59.9192153952228</v>
-      </c>
-      <c r="W8" s="14">
-        <f t="shared" si="2"/>
-        <v>0.744347052630002</v>
-      </c>
-      <c r="X8" s="14">
-        <f t="shared" si="3"/>
-        <v>59.923838546223529</v>
-      </c>
-      <c r="Y8" s="40">
-        <f>DEGREES(IMARGUMENT(U8))</f>
-        <v>0.71172078502610525</v>
-      </c>
-      <c r="Z8" s="43">
-        <v>76.722999999999999</v>
-      </c>
-      <c r="AA8" s="15">
-        <f>(Z8-X8)/X8</f>
-        <v>0.28034187831305363</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>60.037999999999997</v>
-      </c>
-      <c r="AC8" s="25">
-        <f t="shared" si="12"/>
-        <v>1.905109160996208E-3</v>
-      </c>
-      <c r="AD8" s="66">
-        <f t="shared" si="13"/>
-        <v>83.078211012523298</v>
-      </c>
-      <c r="AE8" s="64">
-        <f t="shared" si="14"/>
-        <v>5.0375527698461531E-9</v>
-      </c>
-      <c r="AF8" s="63">
-        <f t="shared" si="15"/>
-        <v>110.86486540166524</v>
-      </c>
-      <c r="AG8" s="64">
-        <f t="shared" si="16"/>
-        <v>3.7749639661197268E-9</v>
-      </c>
-      <c r="AH8" s="63">
-        <f t="shared" si="17"/>
-        <v>85.280665693588645</v>
-      </c>
-      <c r="AI8" s="64">
-        <f t="shared" si="18"/>
-        <v>4.9074531559556452E-9</v>
-      </c>
-      <c r="AJ8" s="75">
-        <f t="shared" si="19"/>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="AK8" s="74">
-        <f t="shared" si="19"/>
-        <v>2.6743948489706221E-5</v>
-      </c>
-      <c r="AL8" s="65">
-        <f t="shared" si="19"/>
-        <v>63.90631616347946</v>
-      </c>
-      <c r="AM8" s="64">
-        <f t="shared" si="19"/>
-        <v>6.5488186007999992E-9</v>
-      </c>
-      <c r="AN8" s="65">
-        <f t="shared" si="20"/>
-        <v>248.60884769063878</v>
-      </c>
-      <c r="AO8" s="68">
-        <f t="shared" si="21"/>
-        <v>1.6834110124704093E-9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A9" s="31">
-        <v>300</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>10240</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="4"/>
-        <v>7.968599999999999E-11</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="F9" s="7">
-        <v>17.2</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="H9" s="9">
-        <f t="shared" si="5"/>
-        <v>0.18098942288797357</v>
-      </c>
-      <c r="I9" s="61" t="str">
-        <f>IMSUM(IMPRODUCT(COMPLEX(49.3,62.8*LN(93.2*SQRT(C9)/E9)),10^-3),H9)</f>
-        <v>0,230289422887974+0,90148039486557i</v>
-      </c>
-      <c r="J9" s="60">
+      <c r="I9" s="77">
         <f t="shared" si="6"/>
         <v>13.079798857132616</v>
       </c>
-      <c r="K9" s="37" t="str">
-        <f>IMPRODUCT(I9,A9/1000)</f>
-        <v>0,0690868268663922+0,270444118459671i</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="J9" s="74">
+        <f>(C9/(PI()*A9))*(LN((2*A9)/(SQRT(2*F9*B9)))-1)</f>
+        <v>83.137282625889924</v>
+      </c>
+      <c r="K9" s="8">
+        <f>C9*D9/J9</f>
+        <v>9.8149063119112904E-9</v>
+      </c>
+      <c r="L9" s="9">
+        <f>G9/H9*(A9/1000)</f>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="M9" s="52">
         <f t="shared" si="7"/>
-        <v>83.137282625889924</v>
-      </c>
-      <c r="M9" s="9">
-        <f>C9*D9/L9</f>
-        <v>9.8149063119112904E-9</v>
-      </c>
-      <c r="N9" s="10">
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="N9" s="9">
+        <f>C9/(2*PI()*I9)</f>
+        <v>124.60028132407268</v>
+      </c>
+      <c r="O9" s="8">
+        <f>C9*D9/N9</f>
+        <v>6.5488186007999983E-9</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="Q9" s="54">
         <f t="shared" si="8"/>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="O9" s="56">
-        <f>(IMAGINARY(K9))/(2*PI()*1572)</f>
-        <v>2.738073682123838E-5</v>
-      </c>
-      <c r="P9" s="10">
+        <v>1.6834110124704086E-9</v>
+      </c>
+      <c r="R9" s="16">
         <f t="shared" si="9"/>
+        <v>484.72098254991266</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="2"/>
+        <v>116.79795067665</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="3"/>
+        <v>0.63191378016472499</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="4"/>
+        <v>116.79966009064722</v>
+      </c>
+      <c r="W9" s="36">
+        <f>DEGREES(IMARGUMENT(S9))</f>
+        <v>0.30998522789106286</v>
+      </c>
+      <c r="X9" s="39">
+        <v>149.59</v>
+      </c>
+      <c r="Y9" s="14">
+        <f>(X9-V9)/V9</f>
+        <v>0.28074002855748448</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>117.08</v>
+      </c>
+      <c r="AA9" s="23">
+        <f t="shared" si="10"/>
+        <v>2.4001774417426081E-3</v>
+      </c>
+      <c r="AB9" s="59">
+        <f t="shared" si="11"/>
+        <v>161.9803657212945</v>
+      </c>
+      <c r="AC9" s="57">
+        <f t="shared" si="12"/>
+        <v>5.0375527698461522E-9</v>
+      </c>
+      <c r="AD9" s="56">
+        <f t="shared" si="13"/>
+        <v>216.15693482731382</v>
+      </c>
+      <c r="AE9" s="57">
+        <f t="shared" si="14"/>
+        <v>3.7749639661197268E-9</v>
+      </c>
+      <c r="AF9" s="56">
+        <f t="shared" si="15"/>
+        <v>166.27456525177985</v>
+      </c>
+      <c r="AG9" s="57">
+        <f t="shared" si="16"/>
+        <v>4.9074531559556452E-9</v>
+      </c>
+      <c r="AH9" s="68">
+        <f t="shared" si="17"/>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="AI9" s="67">
+        <f t="shared" si="17"/>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="AJ9" s="58">
+        <f t="shared" si="17"/>
         <v>124.60028132407268</v>
       </c>
-      <c r="Q9" s="9">
-        <f>C9*D9/P9</f>
+      <c r="AK9" s="57">
+        <f t="shared" si="17"/>
         <v>6.5488186007999983E-9</v>
       </c>
-      <c r="R9" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="S9" s="58">
-        <f t="shared" si="10"/>
+      <c r="AL9" s="58">
+        <f t="shared" si="18"/>
+        <v>484.72098254991266</v>
+      </c>
+      <c r="AM9" s="61">
+        <f t="shared" si="19"/>
         <v>1.6834110124704086E-9</v>
       </c>
-      <c r="T9" s="17">
-        <f t="shared" si="11"/>
-        <v>484.72098254991266</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="14">
+    </row>
+    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="30">
+        <v>300</v>
+      </c>
+      <c r="B10" s="31">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="32">
+        <f t="shared" si="5"/>
+        <v>7.968599999999999E-11</v>
+      </c>
+      <c r="E10" s="34">
+        <f>4*PI()*10^-7</f>
+        <v>1.2566370614359173E-6</v>
+      </c>
+      <c r="F10" s="32">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G10" s="32">
+        <v>17.2</v>
+      </c>
+      <c r="H10" s="33">
         <f t="shared" si="1"/>
-        <v>116.79795067665</v>
-      </c>
-      <c r="W9" s="14">
-        <f t="shared" si="2"/>
-        <v>0.63191378016472499</v>
-      </c>
-      <c r="X9" s="14">
-        <f t="shared" si="3"/>
-        <v>116.79966009064722</v>
-      </c>
-      <c r="Y9" s="40">
-        <f>DEGREES(IMARGUMENT(U9))</f>
-        <v>0.30998522789106286</v>
-      </c>
-      <c r="Z9" s="43">
-        <v>149.59</v>
-      </c>
-      <c r="AA9" s="15">
-        <f>(Z9-X9)/X9</f>
-        <v>0.28074002855748448</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>117.08</v>
-      </c>
-      <c r="AC9" s="25">
-        <f t="shared" si="12"/>
-        <v>2.4001774417426081E-3</v>
-      </c>
-      <c r="AD9" s="66">
-        <f t="shared" si="13"/>
-        <v>161.9803657212945</v>
-      </c>
-      <c r="AE9" s="64">
-        <f t="shared" si="14"/>
-        <v>5.0375527698461522E-9</v>
-      </c>
-      <c r="AF9" s="63">
-        <f t="shared" si="15"/>
-        <v>216.15693482731382</v>
-      </c>
-      <c r="AG9" s="64">
-        <f t="shared" si="16"/>
-        <v>3.7749639661197268E-9</v>
-      </c>
-      <c r="AH9" s="63">
-        <f t="shared" si="17"/>
-        <v>166.27456525177985</v>
-      </c>
-      <c r="AI9" s="64">
-        <f t="shared" si="18"/>
-        <v>4.9074531559556452E-9</v>
-      </c>
-      <c r="AJ9" s="75">
-        <f t="shared" si="19"/>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="AK9" s="74">
-        <f t="shared" si="19"/>
-        <v>2.738073682123838E-5</v>
-      </c>
-      <c r="AL9" s="65">
-        <f t="shared" si="19"/>
-        <v>124.60028132407268</v>
-      </c>
-      <c r="AM9" s="64">
-        <f t="shared" si="19"/>
-        <v>6.5488186007999983E-9</v>
-      </c>
-      <c r="AN9" s="65">
-        <f t="shared" si="20"/>
-        <v>484.72098254991266</v>
-      </c>
-      <c r="AO9" s="68">
-        <f t="shared" si="21"/>
-        <v>1.6834110124704086E-9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="32">
-        <v>300</v>
-      </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10" s="34">
-        <v>2200</v>
-      </c>
-      <c r="D10" s="34">
-        <f t="shared" si="4"/>
-        <v>7.968599999999999E-11</v>
-      </c>
-      <c r="E10" s="34">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="F10" s="34">
-        <v>17.2</v>
-      </c>
-      <c r="G10" s="35">
-        <f t="shared" si="0"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="H10" s="36">
-        <f t="shared" si="5"/>
-        <v>0.18098942288797357</v>
-      </c>
-      <c r="I10" s="62" t="str">
-        <f>IMSUM(IMPRODUCT(COMPLEX(49.3,62.8*LN(93.2*SQRT(C10)/E10)),10^-3),H10)</f>
-        <v>0,230289422887974+0,853192085125211i</v>
-      </c>
-      <c r="J10" s="78">
+      <c r="I10" s="71">
         <f t="shared" si="6"/>
         <v>13.079798857132616</v>
       </c>
-      <c r="K10" s="38" t="str">
-        <f>IMPRODUCT(I10,A10/1000)</f>
-        <v>0,0690868268663922+0,255957625537563i</v>
-      </c>
-      <c r="L10" s="18">
+      <c r="J10" s="75">
+        <f>(C10/(PI()*A10))*(LN((2*A10)/(SQRT(2*F10*B10)))-1)</f>
+        <v>12.178312884651843</v>
+      </c>
+      <c r="K10" s="34">
+        <f>C10*D10/J10</f>
+        <v>9.8149063119112921E-9</v>
+      </c>
+      <c r="L10" s="17">
+        <f>G10/H10*(A10/1000)</f>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="M10" s="34">
         <f t="shared" si="7"/>
-        <v>17.861525564156036</v>
-      </c>
-      <c r="M10" s="36">
-        <f>C10*D10/L10</f>
-        <v>9.8149063119112921E-9</v>
-      </c>
-      <c r="N10" s="18">
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="N10" s="17">
+        <v>4.1899034834539588</v>
+      </c>
+      <c r="O10" s="34">
+        <f>C10*D10/N10</f>
+        <v>2.8527864775888803E-8</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="Q10" s="34">
         <f t="shared" si="8"/>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="O10" s="19">
-        <f>(IMAGINARY(K10))/(2*PI()*1572)</f>
-        <v>2.5914072090564566E-5</v>
-      </c>
-      <c r="P10" s="18">
+        <v>3.1296454747220856E-9</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="9"/>
+        <v>38.19250485891353</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="25">
+        <f t="shared" si="2"/>
+        <v>5.0873319240113197</v>
+      </c>
+      <c r="U10" s="25">
+        <f t="shared" si="3"/>
+        <v>1.7464794141464</v>
+      </c>
+      <c r="V10" s="25">
+        <f t="shared" si="4"/>
+        <v>5.3787671867354394</v>
+      </c>
+      <c r="W10" s="37">
+        <f>DEGREES(IMARGUMENT(S10))</f>
+        <v>18.947329719219386</v>
+      </c>
+      <c r="X10" s="40">
+        <v>6.6738</v>
+      </c>
+      <c r="Y10" s="26">
+        <f>(X10-V10)/V10</f>
+        <v>0.24076759010098761</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>5.91</v>
+      </c>
+      <c r="AA10" s="27">
+        <f t="shared" si="10"/>
+        <v>9.8764790298905725E-2</v>
+      </c>
+      <c r="AB10" s="62">
+        <f t="shared" si="11"/>
+        <v>5.446874528490147</v>
+      </c>
+      <c r="AC10" s="63">
+        <f t="shared" si="12"/>
+        <v>2.1944511366068309E-8</v>
+      </c>
+      <c r="AD10" s="64">
+        <f t="shared" si="13"/>
+        <v>31.663613500094794</v>
+      </c>
+      <c r="AE10" s="63">
+        <f t="shared" si="14"/>
+        <v>3.7749639661197277E-9</v>
+      </c>
+      <c r="AF10" s="64">
+        <f t="shared" si="15"/>
+        <v>24.356625769303687</v>
+      </c>
+      <c r="AG10" s="63">
+        <f t="shared" si="16"/>
+        <v>4.907453155955646E-9</v>
+      </c>
+      <c r="AH10" s="70">
+        <f t="shared" si="17"/>
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="AI10" s="69">
+        <f t="shared" si="17"/>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="AJ10" s="65">
+        <f t="shared" si="17"/>
         <v>4.1899034834539588</v>
       </c>
-      <c r="Q10" s="36">
-        <f>C10*D10/P10</f>
-        <v>4.1840868337970244E-8</v>
-      </c>
-      <c r="R10" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="S10" s="36">
-        <f t="shared" si="10"/>
-        <v>3.4071494470267626E-9</v>
-      </c>
-      <c r="T10" s="21">
-        <f t="shared" si="11"/>
-        <v>51.453334444423305</v>
-      </c>
-      <c r="U10" s="26" t="s">
+      <c r="AK10" s="63">
+        <f t="shared" si="17"/>
+        <v>2.8527864775888803E-8</v>
+      </c>
+      <c r="AL10" s="65">
+        <f t="shared" si="18"/>
+        <v>38.19250485891353</v>
+      </c>
+      <c r="AM10" s="66">
+        <f t="shared" si="19"/>
+        <v>3.1296454747220856E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="73"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="S12" s="2"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12"/>
+      <c r="AA12" s="73"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="73"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z14"/>
+      <c r="AA14"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="72"/>
+      <c r="S15" s="2"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z16"/>
+      <c r="AA16"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>91</v>
       </c>
-      <c r="V10" s="27">
-        <f t="shared" si="1"/>
-        <v>5.0873319240113197</v>
-      </c>
-      <c r="W10" s="27">
-        <f t="shared" si="2"/>
-        <v>1.7464794141464</v>
-      </c>
-      <c r="X10" s="27">
-        <f t="shared" si="3"/>
-        <v>5.3787671867354394</v>
-      </c>
-      <c r="Y10" s="41">
-        <f>DEGREES(IMARGUMENT(U10))</f>
-        <v>18.947329719219386</v>
-      </c>
-      <c r="Z10" s="44">
-        <v>5.9364999999999997</v>
-      </c>
-      <c r="AA10" s="28">
-        <f>(Z10-X10)/X10</f>
-        <v>0.10369156981547432</v>
-      </c>
-      <c r="AB10" s="27">
-        <v>5.6910999999999996</v>
-      </c>
-      <c r="AC10" s="29">
-        <f t="shared" si="12"/>
-        <v>5.8067732329966454E-2</v>
-      </c>
-      <c r="AD10" s="69">
-        <f t="shared" si="13"/>
-        <v>5.446874528490147</v>
-      </c>
-      <c r="AE10" s="70">
-        <f t="shared" si="14"/>
-        <v>3.2185283336900189E-8</v>
-      </c>
-      <c r="AF10" s="71">
-        <f t="shared" si="15"/>
-        <v>46.439966466805693</v>
-      </c>
-      <c r="AG10" s="70">
-        <f t="shared" si="16"/>
-        <v>3.7749639661197277E-9</v>
-      </c>
-      <c r="AH10" s="71">
-        <f t="shared" si="17"/>
-        <v>35.723051128312072</v>
-      </c>
-      <c r="AI10" s="70">
-        <f t="shared" si="18"/>
-        <v>4.907453155955646E-9</v>
-      </c>
-      <c r="AJ10" s="77">
-        <f t="shared" si="19"/>
-        <v>6.9086826866392198E-2</v>
-      </c>
-      <c r="AK10" s="76">
-        <f t="shared" si="19"/>
-        <v>2.5914072090564566E-5</v>
-      </c>
-      <c r="AL10" s="72">
-        <f t="shared" si="19"/>
-        <v>4.1899034834539588</v>
-      </c>
-      <c r="AM10" s="70">
-        <f t="shared" si="19"/>
-        <v>4.1840868337970244E-8</v>
-      </c>
-      <c r="AN10" s="72">
-        <f t="shared" si="20"/>
-        <v>51.453334444423305</v>
-      </c>
-      <c r="AO10" s="73">
-        <f t="shared" si="21"/>
-        <v>3.4071494470267626E-9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="AA11" s="80"/>
-      <c r="AC11" s="80"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="U12" s="2"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12"/>
-      <c r="AC12" s="80"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="AB13"/>
-      <c r="AC13" s="80"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB14"/>
-      <c r="AC14"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="79"/>
-      <c r="U15" s="2"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB16"/>
-      <c r="AC16"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB18"/>
-      <c r="AC18"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB19"/>
-      <c r="AC19"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="Z19"/>
+      <c r="AA19"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="U20" s="2"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="73"/>
+      <c r="AA20"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AD4:AO4"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="AB4:AM4"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="S3:AA3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2987,18 +2862,18 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="2055" r:id="rId4">
+        <oleObject progId="Equation.3" shapeId="3074" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>127000</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>139700</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>12700</xdr:rowOff>
               </to>
@@ -3007,12 +2882,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="2055" r:id="rId4"/>
+        <oleObject progId="Equation.3" shapeId="3074" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="2056" r:id="rId6">
+        <oleObject progId="Equation.3" shapeId="3075" r:id="rId6">
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -3023,6 +2898,31 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="3075" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="3077" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>139700</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>12700</xdr:rowOff>
@@ -3032,62 +2932,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="2056" r:id="rId6"/>
+        <oleObject progId="Equation.3" shapeId="3077" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="2057" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="2057" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="2058" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>127000</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="2058" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="2059" r:id="rId11">
+        <oleObject progId="Equation.3" shapeId="3078" r:id="rId9">
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -3098,31 +2948,6 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>139700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="2059" r:id="rId11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="2060" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
                 <xdr:colOff>133350</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>31750</xdr:rowOff>
@@ -3132,7 +2957,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="2060" r:id="rId12"/>
+        <oleObject progId="Equation.3" shapeId="3078" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -3144,7 +2969,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3163,2232 +2988,2232 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="53" t="s">
+    <row r="4" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>23</v>
+      <c r="I4" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="49">
+      <c r="A5" s="45">
         <v>80</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="45">
         <v>20</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="46">
         <v>0.48958822222868098</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="46">
         <v>0.34907981099020702</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="46">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="46">
         <v>0.25079610956267145</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="46">
         <v>0.50159221912534291</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="46">
         <v>6.3459893125704214</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="46">
         <v>0.36425999999999997</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="46">
         <v>0.25598700405448399</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="46">
         <v>0.74401299594551595</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="A6" s="43">
         <v>90</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="43">
         <v>20</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="41">
         <v>0.46831175077630099</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="41">
         <v>0.33136833767790702</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="41">
         <v>0.22951963811029147</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="41">
         <v>0.45903927622058294</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="41">
         <v>6.9342625494824253</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="41">
         <v>0.34516999999999998</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="41">
         <v>0.26294824029543151</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="41">
         <v>0.73705175970456849</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="A7" s="43">
         <v>100</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="43">
         <v>20</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="41">
         <v>0.43724029661451402</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="41">
         <v>0.31877972180478498</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="41">
         <v>0.1984481839485045</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="41">
         <v>0.39689636789700899</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="41">
         <v>8.0199747825958738</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="41">
         <v>0.31763999999999998</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="41">
         <v>0.2735344787307144</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="41">
         <v>0.72646552126928565</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+      <c r="A8" s="43">
         <v>150</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="43">
         <v>20</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="41">
         <v>0.37034072908576199</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="41">
         <v>0.27596409949224499</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="41">
         <v>0.13154861641975246</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="41">
         <v>0.26309723283950492</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="41">
         <v>12.098564578137037</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="41">
         <v>0.26057000000000002</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="41">
         <v>0.29640469023417004</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="41">
         <v>0.70359530976582996</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+      <c r="A9" s="43">
         <v>200</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="43">
         <v>20</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="41">
         <v>0.34070423017892598</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="41">
         <v>0.261946091464479</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="41">
         <v>0.10191211751291646</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="41">
         <v>0.20382423502583291</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="41">
         <v>15.616881189003246</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="41">
         <v>0.23683000000000001</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="41">
         <v>0.3048809523861058</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="41">
         <v>0.6951190476138942</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="A10" s="43">
         <v>250</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="43">
         <v>20</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="41">
         <v>0.31726845571074203</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="41">
         <v>0.24940297004353701</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="41">
         <v>7.8476343044732499E-2</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="41">
         <v>0.156952686089465</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="41">
         <v>20.280626863712932</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="41">
         <v>0.21915999999999999</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="41">
         <v>0.3092285222335146</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="41">
         <v>0.6907714777664854</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+      <c r="A11" s="43">
         <v>300</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="43">
         <v>20</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="41">
         <v>0.30699801928633902</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="41">
         <v>0.24329973384320799</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="41">
         <v>6.8205906620329493E-2</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="41">
         <v>0.13641181324065899</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="41">
         <v>23.334480982393032</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="41">
         <v>0.21182999999999999</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="41">
         <v>0.3099955482044176</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="41">
         <v>0.69000445179558234</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="A12" s="43">
         <v>350</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="43">
         <v>20</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="41">
         <v>0.29947523599224002</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="41">
         <v>0.23323564024079699</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="41">
         <v>6.0683123326230493E-2</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="41">
         <v>0.12136624665246099</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="41">
         <v>26.227216789136506</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="41">
         <v>0.20666000000000001</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="41">
         <v>0.30992624710593775</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="41">
         <v>0.69007375289406225</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="A13" s="43">
         <v>400</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="43">
         <v>20</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="41">
         <v>0.28990032575651897</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="41">
         <v>0.228526149632683</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="41">
         <v>5.1108213090509447E-2</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="41">
         <v>0.10221642618101889</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="41">
         <v>31.140776299504324</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="41">
         <v>0.20029</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="41">
         <v>0.30910736482504253</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="41">
         <v>0.69089263517495747</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="A14" s="43">
         <v>500</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="43">
         <v>20</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="41">
         <v>0.27954814474487699</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="41">
         <v>0.22452685111064399</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="41">
         <v>4.0756032078867466E-2</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="41">
         <v>8.1512064157734931E-2</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="41">
         <v>39.050647222946722</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="41">
         <v>0.19377</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="41">
         <v>0.30684569494517799</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="41">
         <v>0.69315430505482201</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="A15" s="43">
         <v>600</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="43">
         <v>20</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="41">
         <v>0.27542090550016102</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="41">
         <v>0.22487993707083101</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="41">
         <v>3.6628792834151491E-2</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="41">
         <v>7.3257585668302982E-2</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="41">
         <v>43.450774862420381</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="41">
         <v>0.19131000000000001</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="41">
         <v>0.30539041815804296</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="41">
         <v>0.69460958184195709</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="47">
+      <c r="A16" s="43">
         <v>800</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="43">
         <v>20</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="41">
         <v>0.26360447013419702</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="41">
         <v>0.21713223336734</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="41">
         <v>0.23879211266600953</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="41">
         <v>2.4812357468187496E-2</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="41">
         <v>4.9624714936374992E-2</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="41">
         <v>64.143418575180377</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="41">
         <v>0.18604999999999999</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="41">
         <v>0.29420771997802325</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="41">
         <v>0.70579228002197669</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="43">
         <v>80</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="43">
         <v>100</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="41">
         <v>2.4479420004521</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="41">
         <v>1.74540558047913</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="41">
         <v>1.2539814371220523</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="41">
         <v>2.5079628742441047</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="41">
         <v>6.3459848120704079</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="41">
         <v>1.8212999999999999</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="41">
         <v>0.25598727434570273</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="41">
         <v>0.74401272565429721</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="43">
         <v>90</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="43">
         <v>100</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="41">
         <v>2.3415542695769198</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="41">
         <v>1.6568401056873501</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="41">
         <v>1.1475937062468722</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="41">
         <v>2.2951874124937444</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="41">
         <v>6.9342896456098932</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="41">
         <v>1.7258</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="41">
         <v>0.26296818210759493</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="41">
         <v>0.73703181789240513</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="43">
         <v>100</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="43">
         <v>100</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="41">
         <v>2.1861983438671801</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="41">
         <v>1.59389633451208</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="41">
         <v>0.99223778053713252</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="41">
         <v>1.984475561074265</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="41">
         <v>8.0200001558970708</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="41">
         <v>1.5882000000000001</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="41">
         <v>0.27353343558452115</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="41">
         <v>0.72646656441547885</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="43">
         <v>150</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="43">
         <v>100</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="41">
         <v>1.8517003374691601</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="41">
         <v>1.3798248258790899</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="41">
         <v>0.65773977413911244</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="41">
         <v>1.3154795482782249</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="41">
         <v>12.098625425245604</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="41">
         <v>1.3028999999999999</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="41">
         <v>0.29637643109102707</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="41">
         <v>0.70362356890897293</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="43">
         <v>200</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="43">
         <v>100</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="41">
         <v>1.70352181479278</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="41">
         <v>1.30972510870596</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="41">
         <v>0.50956125146273235</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="41">
         <v>1.0191225029254647</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="41">
         <v>15.616860842050841</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="41">
         <v>1.1841999999999999</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="41">
         <v>0.30485187232894428</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="41">
         <v>0.69514812767105572</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="43">
         <v>250</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="43">
         <v>100</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="41">
         <v>1.58634139907965</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="41">
         <v>1.2470138096519701</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="41">
         <v>0.39238083574960236</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="41">
         <v>0.78476167149920473</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="41">
         <v>20.280672320278658</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="41">
         <v>1.0958000000000001</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="41">
         <v>0.30922813926702536</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="41">
         <v>0.6907718607329747</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="43">
         <v>300</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="43">
         <v>100</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="41">
         <v>1.53499152599918</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="41">
         <v>1.2164934275033099</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="41">
         <v>0.34103096266913235</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="41">
         <v>0.68206192533826471</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="41">
         <v>23.3343831665964</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="41">
         <v>1.0591999999999999</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="41">
         <v>0.30996361734926881</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="41">
         <v>0.69003638265073119</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+      <c r="A24" s="43">
         <v>350</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="43">
         <v>100</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="41">
         <v>1.4973701207130801</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="41">
         <v>1.16617769050125</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="41">
         <v>0.30340955738303244</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="41">
         <v>0.60681911476606487</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="41">
         <v>26.227740560422401</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="41">
         <v>1.0333000000000001</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="41">
         <v>0.30992345465801047</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="41">
         <v>0.69007654534198948</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="47">
+      <c r="A25" s="43">
         <v>400</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="43">
         <v>100</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="41">
         <v>1.44949971722631</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="41">
         <v>1.1426221698861201</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="41">
         <v>0.25553915389626236</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="41">
         <v>0.51107830779252472</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="41">
         <v>31.14100924755062</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="41">
         <v>1.0015000000000001</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="41">
         <v>0.3090719590367218</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="41">
         <v>0.6909280409632782</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="47">
+      <c r="A26" s="43">
         <v>500</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="43">
         <v>100</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="41">
         <v>1.39773992928873</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="41">
         <v>1.12263313566795</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="41">
         <v>0.2037793659586824</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="41">
         <v>0.4075587319173648</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="41">
         <v>39.050799462239233</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="41">
         <v>0.96882999999999997</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="41">
         <v>0.30685960978949073</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="41">
         <v>0.69314039021050933</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="47">
+      <c r="A27" s="43">
         <v>600</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="43">
         <v>100</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="41">
         <v>1.3770992824071999</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="41">
         <v>1.1243977756447201</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="41">
         <v>0.18313871907715229</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="41">
         <v>0.36627743815430458</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="41">
         <v>43.452019292776342</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="41">
         <v>0.95655999999999997</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="41">
         <v>0.30538051088959106</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="41">
         <v>0.69461948911040894</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="47">
+      <c r="A28" s="43">
         <v>800</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="43">
         <v>100</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="41">
         <v>1.3180235407548799</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="41">
         <v>1.0856610332763901</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="41">
         <v>1.1939605633300476</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="41">
         <v>0.1240629774248323</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="41">
         <v>0.2481259548496646</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="41">
         <v>64.142803274379204</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="41">
         <v>0.93023999999999996</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="41">
         <v>0.29421594437742915</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="41">
         <v>0.70578405562257085</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+      <c r="A29" s="43">
         <v>80</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="43">
         <v>300</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="41">
         <v>7.3438260582310999</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="41">
         <v>5.2362009228930502</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="41">
         <v>3.761944368240957</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="41">
         <v>7.523888736481914</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="41">
         <v>6.3459847161288998</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="41">
         <v>5.4638999999999998</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="41">
         <v>0.25598728010776389</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="41">
         <v>0.74401271989223616</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+      <c r="A30" s="43">
         <v>90</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="43">
         <v>300</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="41">
         <v>7.0246713301597303</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="41">
         <v>4.9705230364272204</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="41">
         <v>3.4427896401695874</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="41">
         <v>6.8855792803391749</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="41">
         <v>6.9342724821863753</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="41">
         <v>5.1775000000000002</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="41">
         <v>0.26295484063846275</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="41">
         <v>0.73704515936153725</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+      <c r="A31" s="43">
         <v>100</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="43">
         <v>300</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="41">
         <v>6.55860518057038</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="41">
         <v>4.7816932455867303</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="41">
         <v>2.9767234905802371</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="41">
         <v>5.9534469811604742</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="41">
         <v>8.0199728121642959</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="41">
         <v>4.7647000000000004</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="41">
         <v>0.27351931259481144</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="41">
         <v>0.72648068740518856</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+      <c r="A32" s="43">
         <v>150</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="43">
         <v>300</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="41">
         <v>5.5551159527484204</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="41">
         <v>4.1394581444747898</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="41">
         <v>1.9732342627582775</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="41">
         <v>3.946468525516555</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="41">
         <v>12.098533820517178</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="41">
         <v>3.9085999999999999</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="41">
         <v>0.29639632489287626</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="41">
         <v>0.70360367510712374</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+      <c r="A33" s="43">
         <v>200</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="43">
         <v>300</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="41">
         <v>5.1105655047776599</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="41">
         <v>3.9291714217157101</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="41">
         <v>1.528683814787517</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="41">
         <v>3.0573676295750341</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="41">
         <v>15.616860225018225</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="41">
         <v>3.5525000000000002</v>
       </c>
-      <c r="J33" s="45">
+      <c r="J33" s="41">
         <v>0.3048714478507491</v>
       </c>
-      <c r="K33" s="45">
+      <c r="K33" s="41">
         <v>0.69512855214925096</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+      <c r="A34" s="43">
         <v>250</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="43">
         <v>300</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="41">
         <v>4.7590314859537202</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="41">
         <v>3.7410405736134198</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="41">
         <v>1.1771497959635773</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="41">
         <v>2.3542995919271545</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="41">
         <v>20.280546745745664</v>
       </c>
-      <c r="I34" s="45">
+      <c r="I34" s="41">
         <v>3.2875000000000001</v>
       </c>
-      <c r="J34" s="45">
+      <c r="J34" s="41">
         <v>0.30920818454278876</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="41">
         <v>0.69079181545721124</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+      <c r="A35" s="43">
         <v>300</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="43">
         <v>300</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="41">
         <v>4.6049414859497499</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="41">
         <v>3.6494991092179201</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="41">
         <v>1.0230597959596071</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="41">
         <v>2.0461195919192141</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="41">
         <v>23.33513794410398</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="41">
         <v>3.1775000000000002</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="41">
         <v>0.30998037440976212</v>
       </c>
-      <c r="K35" s="45">
+      <c r="K35" s="41">
         <v>0.69001962559023788</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+      <c r="A36" s="43">
         <v>350</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="43">
         <v>300</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="41">
         <v>4.4921187541302903</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="41">
         <v>3.4985208692224701</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="41">
         <v>0.91023706414014738</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="41">
         <v>1.8204741282802948</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="41">
         <v>26.227498752026854</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="41">
         <v>3.1</v>
       </c>
-      <c r="J36" s="45">
+      <c r="J36" s="41">
         <v>0.30990248262032322</v>
       </c>
-      <c r="K36" s="45">
+      <c r="K36" s="41">
         <v>0.69009751737967684</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+      <c r="A37" s="43">
         <v>400</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B37" s="43">
         <v>300</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="41">
         <v>4.3485005305473798</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="41">
         <v>3.4278886877875498</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="41">
         <v>0.76661884055723695</v>
       </c>
-      <c r="G37" s="45">
+      <c r="G37" s="41">
         <v>1.5332376811144739</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="41">
         <v>31.140953236201984</v>
       </c>
-      <c r="I37" s="45">
+      <c r="I37" s="41">
         <v>3.0044</v>
       </c>
-      <c r="J37" s="45">
+      <c r="J37" s="41">
         <v>0.30909517455622509</v>
       </c>
-      <c r="K37" s="45">
+      <c r="K37" s="41">
         <v>0.69090482544377485</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+      <c r="A38" s="43">
         <v>500</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="43">
         <v>300</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="41">
         <v>4.1932183507144698</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="41">
         <v>3.3679126862491402</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="41">
         <v>0.61133666072432691</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="41">
         <v>1.2226733214486538</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="41">
         <v>39.050891264231872</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="41">
         <v>2.9064999999999999</v>
       </c>
-      <c r="J38" s="45">
+      <c r="J38" s="41">
         <v>0.3068569874247617</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="41">
         <v>0.69314301257523825</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+      <c r="A39" s="43">
         <v>600</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="43">
         <v>300</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="41">
         <v>4.1313031123753996</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="41">
         <v>3.3731987542461899</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="41">
         <v>0.54942142238525671</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="41">
         <v>1.0988428447705134</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="41">
         <v>43.45160288825484</v>
       </c>
-      <c r="I39" s="45">
+      <c r="I39" s="41">
         <v>2.8696999999999999</v>
       </c>
-      <c r="J39" s="45">
+      <c r="J39" s="41">
         <v>0.30537655506231021</v>
       </c>
-      <c r="K39" s="45">
+      <c r="K39" s="41">
         <v>0.69462344493768979</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+      <c r="A40" s="43">
         <v>800</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="43">
         <v>300</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="41">
         <v>3.9540641379613302</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="41">
         <v>3.2569872047416801</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="41">
         <v>3.5818816899901429</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="41">
         <v>0.37218244797118727</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="41">
         <v>0.74436489594237454</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="41">
         <v>64.143920794546617</v>
       </c>
-      <c r="I40" s="45">
+      <c r="I40" s="41">
         <v>2.7907000000000002</v>
       </c>
-      <c r="J40" s="45">
+      <c r="J40" s="41">
         <v>0.29421984504306675</v>
       </c>
-      <c r="K40" s="45">
+      <c r="K40" s="41">
         <v>0.70578015495693325</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="47">
+      <c r="A41" s="43">
         <v>80</v>
       </c>
-      <c r="B41" s="47">
+      <c r="B41" s="43">
         <v>5252</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="41">
         <v>128.56644535826999</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="41">
         <v>91.668327919793697</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="41">
         <v>65.859636572175887</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="41">
         <v>131.71927314435177</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="41">
         <v>6.3459335992735673</v>
       </c>
-      <c r="I41" s="45">
+      <c r="I41" s="41">
         <v>95.656000000000006</v>
       </c>
-      <c r="J41" s="45">
+      <c r="J41" s="41">
         <v>0.25598005192225709</v>
       </c>
-      <c r="K41" s="45">
+      <c r="K41" s="41">
         <v>0.74401994807774297</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="47">
+      <c r="A42" s="43">
         <v>90</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="43">
         <v>5252</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="41">
         <v>122.97873477375001</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="41">
         <v>87.017250103302004</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="41">
         <v>60.271925987655905</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="41">
         <v>120.54385197531181</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="41">
         <v>6.9342546087695007</v>
       </c>
-      <c r="I42" s="45">
+      <c r="I42" s="41">
         <v>90.641000000000005</v>
       </c>
-      <c r="J42" s="45">
+      <c r="J42" s="41">
         <v>0.26295387436895745</v>
       </c>
-      <c r="K42" s="45">
+      <c r="K42" s="41">
         <v>0.73704612563104255</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="47">
+      <c r="A43" s="43">
         <v>100</v>
       </c>
-      <c r="B43" s="47">
+      <c r="B43" s="43">
         <v>5252</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="41">
         <v>114.81956435901201</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="41">
         <v>83.711312581376802</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="41">
         <v>52.112755572917905</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="41">
         <v>104.22551114583581</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="41">
         <v>8.0199343896624367</v>
       </c>
-      <c r="I43" s="45">
+      <c r="I43" s="41">
         <v>83.412999999999997</v>
       </c>
-      <c r="J43" s="45">
+      <c r="J43" s="41">
         <v>0.27352972931347791</v>
       </c>
-      <c r="K43" s="45">
+      <c r="K43" s="41">
         <v>0.72647027068652203</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="47">
+      <c r="A44" s="43">
         <v>150</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="43">
         <v>5252</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="41">
         <v>97.251555883371907</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="41">
         <v>72.4683748312098</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="41">
         <v>34.544747097277806</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="41">
         <v>69.089494194555613</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="41">
         <v>12.098536410829643</v>
       </c>
-      <c r="I44" s="45">
+      <c r="I44" s="41">
         <v>68.426000000000002</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="41">
         <v>0.29640200222545238</v>
       </c>
-      <c r="K44" s="45">
+      <c r="K44" s="41">
         <v>0.70359799777454768</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+      <c r="A45" s="43">
         <v>200</v>
       </c>
-      <c r="B45" s="47">
+      <c r="B45" s="43">
         <v>5252</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="41">
         <v>89.469108135853801</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="41">
         <v>68.786849654426405</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="41">
         <v>26.762299349759701</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="41">
         <v>53.524598699519402</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="41">
         <v>15.61677773263043</v>
       </c>
-      <c r="I45" s="45">
+      <c r="I45" s="41">
         <v>62.192</v>
       </c>
-      <c r="J45" s="45">
+      <c r="J45" s="41">
         <v>0.30487738957266736</v>
       </c>
-      <c r="K45" s="45">
+      <c r="K45" s="41">
         <v>0.6951226104273327</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+      <c r="A46" s="43">
         <v>250</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="43">
         <v>5252</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="41">
         <v>83.314674885960898</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="41">
         <v>65.493125597519594</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="41">
         <v>20.607866099866797</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="41">
         <v>41.215732199733594</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="41">
         <v>20.280648104658376</v>
       </c>
-      <c r="I46" s="45">
+      <c r="I46" s="41">
         <v>57.552999999999997</v>
       </c>
-      <c r="J46" s="45">
+      <c r="J46" s="41">
         <v>0.30920933102389053</v>
       </c>
-      <c r="K46" s="45">
+      <c r="K46" s="41">
         <v>0.69079066897610941</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+      <c r="A47" s="43">
         <v>300</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="43">
         <v>5252</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="41">
         <v>80.617747994157</v>
       </c>
-      <c r="D47" s="45">
+      <c r="D47" s="41">
         <v>63.8901726163134</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="41">
         <v>17.910939208062899</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="41">
         <v>35.821878416125799</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="41">
         <v>23.334392222780497</v>
       </c>
-      <c r="I47" s="45">
+      <c r="I47" s="41">
         <v>55.627000000000002</v>
       </c>
-      <c r="J47" s="45">
+      <c r="J47" s="41">
         <v>0.30999064865925396</v>
       </c>
-      <c r="K47" s="45">
+      <c r="K47" s="41">
         <v>0.69000935134074604</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+      <c r="A48" s="43">
         <v>350</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="43">
         <v>5252</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="41">
         <v>78.6422067879992</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="41">
         <v>61.247605154672598</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="41">
         <v>15.935398001905099</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="41">
         <v>31.870796003810199</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="41">
         <v>26.227200632789447</v>
       </c>
-      <c r="I48" s="45">
+      <c r="I48" s="41">
         <v>54.27</v>
       </c>
-      <c r="J48" s="45">
+      <c r="J48" s="41">
         <v>0.30991254929685413</v>
       </c>
-      <c r="K48" s="45">
+      <c r="K48" s="41">
         <v>0.69008745070314581</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+      <c r="A49" s="43">
         <v>400</v>
       </c>
-      <c r="B49" s="47">
+      <c r="B49" s="43">
         <v>5252</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="41">
         <v>76.127863623273896</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="41">
         <v>60.010832720446501</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="41">
         <v>13.421054837179796</v>
       </c>
-      <c r="G49" s="45">
+      <c r="G49" s="41">
         <v>26.842109674359591</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="41">
         <v>31.140687943656467</v>
       </c>
-      <c r="I49" s="45">
+      <c r="I49" s="41">
         <v>52.595999999999997</v>
       </c>
-      <c r="J49" s="45">
+      <c r="J49" s="41">
         <v>0.30910973332607367</v>
       </c>
-      <c r="K49" s="45">
+      <c r="K49" s="41">
         <v>0.69089026667392628</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="47">
+      <c r="A50" s="43">
         <v>500</v>
       </c>
-      <c r="B50" s="47">
+      <c r="B50" s="43">
         <v>5252</v>
       </c>
-      <c r="C50" s="45">
+      <c r="C50" s="41">
         <v>73.409302115584495</v>
       </c>
-      <c r="D50" s="45">
+      <c r="D50" s="41">
         <v>58.960803012291201</v>
       </c>
-      <c r="E50" s="45">
+      <c r="E50" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="41">
         <v>10.702493329490395</v>
       </c>
-      <c r="G50" s="45">
+      <c r="G50" s="41">
         <v>21.404986658980789</v>
       </c>
-      <c r="H50" s="45">
+      <c r="H50" s="41">
         <v>39.050795706426072</v>
       </c>
-      <c r="I50" s="45">
+      <c r="I50" s="41">
         <v>50.883000000000003</v>
       </c>
-      <c r="J50" s="45">
+      <c r="J50" s="41">
         <v>0.30685896019167103</v>
       </c>
-      <c r="K50" s="45">
+      <c r="K50" s="41">
         <v>0.69314103980832897</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="47">
+      <c r="A51" s="43">
         <v>600</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B51" s="43">
         <v>5252</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="41">
         <v>72.325257972434997</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="41">
         <v>59.053380748238098</v>
       </c>
-      <c r="E51" s="45">
+      <c r="E51" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="41">
         <v>9.6184491863408965</v>
       </c>
-      <c r="G51" s="45">
+      <c r="G51" s="41">
         <v>19.236898372681793</v>
       </c>
-      <c r="H51" s="45">
+      <c r="H51" s="41">
         <v>43.452002756622406</v>
       </c>
-      <c r="I51" s="45">
+      <c r="I51" s="41">
         <v>50.238999999999997</v>
       </c>
-      <c r="J51" s="45">
+      <c r="J51" s="41">
         <v>0.30537406421491975</v>
       </c>
-      <c r="K51" s="45">
+      <c r="K51" s="41">
         <v>0.69462593578508025</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="47">
+      <c r="A52" s="43">
         <v>800</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="43">
         <v>5252</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="41">
         <v>69.222306477104397</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="41">
         <v>57.018768551799702</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="41">
         <v>62.706808786094101</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="41">
         <v>6.515497691010296</v>
       </c>
-      <c r="G52" s="45">
+      <c r="G52" s="41">
         <v>13.030995382020592</v>
       </c>
-      <c r="H52" s="45">
+      <c r="H52" s="41">
         <v>64.145657074818345</v>
       </c>
-      <c r="I52" s="45">
+      <c r="I52" s="41">
         <v>48.856000000000002</v>
       </c>
-      <c r="J52" s="45">
+      <c r="J52" s="41">
         <v>0.29421594733831424</v>
       </c>
-      <c r="K52" s="45">
+      <c r="K52" s="41">
         <v>0.70578405266168576</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+      <c r="A53" s="43">
         <v>80</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="43">
         <v>10240</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="41">
         <v>250.66958153875299</v>
       </c>
-      <c r="D53" s="45">
+      <c r="D53" s="41">
         <v>178.728881156292</v>
       </c>
-      <c r="E53" s="45">
+      <c r="E53" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="41">
         <v>128.40801985375612</v>
       </c>
-      <c r="G53" s="45">
+      <c r="G53" s="41">
         <v>256.81603970751223</v>
       </c>
-      <c r="H53" s="45">
+      <c r="H53" s="41">
         <v>6.3459689632981124</v>
       </c>
-      <c r="I53" s="45">
+      <c r="I53" s="41">
         <v>186.5</v>
       </c>
-      <c r="J53" s="45">
+      <c r="J53" s="41">
         <v>0.25599269422657295</v>
       </c>
-      <c r="K53" s="45">
+      <c r="K53" s="41">
         <v>0.74400730577342711</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+      <c r="A54" s="43">
         <v>90</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="43">
         <v>10240</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="41">
         <v>239.77558145732999</v>
       </c>
-      <c r="D54" s="45">
+      <c r="D54" s="41">
         <v>169.659826423781</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="41">
         <v>117.51401977233311</v>
       </c>
-      <c r="G54" s="45">
+      <c r="G54" s="41">
         <v>235.02803954466623</v>
       </c>
-      <c r="H54" s="45">
+      <c r="H54" s="41">
         <v>6.9342646112285715</v>
       </c>
-      <c r="I54" s="45">
+      <c r="I54" s="41">
         <v>176.73</v>
       </c>
-      <c r="J54" s="45">
+      <c r="J54" s="41">
         <v>0.2629357880153842</v>
       </c>
-      <c r="K54" s="45">
+      <c r="K54" s="41">
         <v>0.7370642119846158</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+      <c r="A55" s="43">
         <v>100</v>
       </c>
-      <c r="B55" s="47">
+      <c r="B55" s="43">
         <v>10240</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="41">
         <v>223.86610286100901</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="41">
         <v>163.21515296288001</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="41">
         <v>101.60454117601213</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="41">
         <v>203.20908235202427</v>
       </c>
-      <c r="H55" s="45">
+      <c r="H55" s="41">
         <v>8.0200481120118283</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="41">
         <v>162.63</v>
       </c>
-      <c r="J55" s="45">
+      <c r="J55" s="41">
         <v>0.27353896851024589</v>
       </c>
-      <c r="K55" s="45">
+      <c r="K55" s="41">
         <v>0.72646103148975416</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="47">
+      <c r="A56" s="43">
         <v>150</v>
       </c>
-      <c r="B56" s="47">
+      <c r="B56" s="43">
         <v>10240</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="41">
         <v>189.61465428683599</v>
       </c>
-      <c r="D56" s="45">
+      <c r="D56" s="41">
         <v>141.294504834121</v>
       </c>
-      <c r="E56" s="45">
+      <c r="E56" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="41">
         <v>67.353092601839109</v>
       </c>
-      <c r="G56" s="45">
+      <c r="G56" s="41">
         <v>134.70618520367822</v>
       </c>
-      <c r="H56" s="45">
+      <c r="H56" s="41">
         <v>12.098528473631717</v>
       </c>
-      <c r="I56" s="45">
+      <c r="I56" s="41">
         <v>133.41</v>
       </c>
-      <c r="J56" s="45">
+      <c r="J56" s="41">
         <v>0.29641513994911733</v>
       </c>
-      <c r="K56" s="45">
+      <c r="K56" s="41">
         <v>0.70358486005088272</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="47">
+      <c r="A57" s="43">
         <v>200</v>
       </c>
-      <c r="B57" s="47">
+      <c r="B57" s="43">
         <v>10240</v>
       </c>
-      <c r="C57" s="45">
+      <c r="C57" s="41">
         <v>174.44122959740699</v>
       </c>
-      <c r="D57" s="45">
+      <c r="D57" s="41">
         <v>134.115550135538</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="41">
         <v>52.17966791241011</v>
       </c>
-      <c r="G57" s="45">
+      <c r="G57" s="41">
         <v>104.35933582482022</v>
       </c>
-      <c r="H57" s="45">
+      <c r="H57" s="41">
         <v>15.616682536162701</v>
       </c>
-      <c r="I57" s="45">
+      <c r="I57" s="41">
         <v>121.26</v>
       </c>
-      <c r="J57" s="45">
+      <c r="J57" s="41">
         <v>0.30486617022904489</v>
       </c>
-      <c r="K57" s="45">
+      <c r="K57" s="41">
         <v>0.69513382977095506</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="47">
+      <c r="A58" s="43">
         <v>250</v>
       </c>
-      <c r="B58" s="47">
+      <c r="B58" s="43">
         <v>10240</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="41">
         <v>162.441540044753</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="41">
         <v>127.694159645542</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E58" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="41">
         <v>40.17997835975612</v>
       </c>
-      <c r="G58" s="45">
+      <c r="G58" s="41">
         <v>80.35995671951224</v>
       </c>
-      <c r="H58" s="45">
+      <c r="H58" s="41">
         <v>20.280581072852776</v>
       </c>
-      <c r="I58" s="45">
+      <c r="I58" s="41">
         <v>112.21</v>
       </c>
-      <c r="J58" s="45">
+      <c r="J58" s="41">
         <v>0.30922841553283786</v>
       </c>
-      <c r="K58" s="45">
+      <c r="K58" s="41">
         <v>0.69077158446716214</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="47">
+      <c r="A59" s="43">
         <v>300</v>
       </c>
-      <c r="B59" s="47">
+      <c r="B59" s="43">
         <v>10240</v>
       </c>
-      <c r="C59" s="45">
+      <c r="C59" s="41">
         <v>157.18311400123801</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="41">
         <v>124.569419555415</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="41">
         <v>34.921552316241133</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="41">
         <v>69.843104632482266</v>
       </c>
-      <c r="H59" s="45">
+      <c r="H59" s="41">
         <v>23.334395368545145</v>
       </c>
-      <c r="I59" s="45">
+      <c r="I59" s="41">
         <v>108.46</v>
       </c>
-      <c r="J59" s="45">
+      <c r="J59" s="41">
         <v>0.30997677015645753</v>
       </c>
-      <c r="K59" s="45">
+      <c r="K59" s="41">
         <v>0.69002322984354247</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="47">
+      <c r="A60" s="43">
         <v>350</v>
       </c>
-      <c r="B60" s="47">
+      <c r="B60" s="43">
         <v>10240</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="41">
         <v>153.33070069441101</v>
       </c>
-      <c r="D60" s="45">
+      <c r="D60" s="41">
         <v>119.416708967594</v>
       </c>
-      <c r="E60" s="45">
+      <c r="E60" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="41">
         <v>31.06913900941413</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="41">
         <v>62.13827801882826</v>
       </c>
-      <c r="H60" s="45">
+      <c r="H60" s="41">
         <v>26.227740278982072</v>
       </c>
-      <c r="I60" s="45">
+      <c r="I60" s="41">
         <v>105.81</v>
       </c>
-      <c r="J60" s="45">
+      <c r="J60" s="41">
         <v>0.30992293441037644</v>
       </c>
-      <c r="K60" s="45">
+      <c r="K60" s="41">
         <v>0.69007706558962356</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="47">
+      <c r="A61" s="43">
         <v>400</v>
       </c>
-      <c r="B61" s="47">
+      <c r="B61" s="43">
         <v>10240</v>
       </c>
-      <c r="C61" s="45">
+      <c r="C61" s="41">
         <v>148.428667801785</v>
       </c>
-      <c r="D61" s="45">
+      <c r="D61" s="41">
         <v>117.004955529315</v>
       </c>
-      <c r="E61" s="45">
+      <c r="E61" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="41">
         <v>26.167106116788119</v>
       </c>
-      <c r="G61" s="45">
+      <c r="G61" s="41">
         <v>52.334212233576238</v>
       </c>
-      <c r="H61" s="45">
+      <c r="H61" s="41">
         <v>31.14113211425023</v>
       </c>
-      <c r="I61" s="45">
+      <c r="I61" s="41">
         <v>102.55</v>
       </c>
-      <c r="J61" s="45">
+      <c r="J61" s="41">
         <v>0.30909573252420758</v>
       </c>
-      <c r="K61" s="45">
+      <c r="K61" s="41">
         <v>0.69090426747579237</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="47">
+      <c r="A62" s="43">
         <v>500</v>
       </c>
-      <c r="B62" s="47">
+      <c r="B62" s="43">
         <v>10240</v>
       </c>
-      <c r="C62" s="45">
+      <c r="C62" s="41">
         <v>143.129047391347</v>
       </c>
-      <c r="D62" s="45">
+      <c r="D62" s="41">
         <v>114.958046288174</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="41">
         <v>20.867485706350124</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="41">
         <v>41.734971412700247</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="41">
         <v>39.049903764042469</v>
       </c>
-      <c r="I62" s="45">
+      <c r="I62" s="41">
         <v>99.209000000000003</v>
       </c>
-      <c r="J62" s="45">
+      <c r="J62" s="41">
         <v>0.30685628243762225</v>
       </c>
-      <c r="K62" s="45">
+      <c r="K62" s="41">
         <v>0.6931437175623778</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="47">
+      <c r="A63" s="43">
         <v>600</v>
       </c>
-      <c r="B63" s="47">
+      <c r="B63" s="43">
         <v>10240</v>
       </c>
-      <c r="C63" s="45">
+      <c r="C63" s="41">
         <v>141.01536419026201</v>
       </c>
-      <c r="D63" s="45">
+      <c r="D63" s="41">
         <v>115.138649070471</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E63" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="41">
         <v>18.753802505265128</v>
       </c>
-      <c r="G63" s="45">
+      <c r="G63" s="41">
         <v>37.507605010530256</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="41">
         <v>43.45109789877165</v>
       </c>
-      <c r="I63" s="45">
+      <c r="I63" s="41">
         <v>97.951999999999998</v>
       </c>
-      <c r="J63" s="45">
+      <c r="J63" s="41">
         <v>0.30538065435309353</v>
       </c>
-      <c r="K63" s="45">
+      <c r="K63" s="41">
         <v>0.69461934564690653</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="47">
+      <c r="A64" s="43">
         <v>800</v>
       </c>
-      <c r="B64" s="47">
+      <c r="B64" s="43">
         <v>10240</v>
       </c>
-      <c r="C64" s="45">
+      <c r="C64" s="41">
         <v>134.96550873061099</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="41">
         <v>111.171700339174</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E64" s="41">
         <v>122.26156168499688</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="41">
         <v>12.703947045614115</v>
       </c>
-      <c r="G64" s="45">
+      <c r="G64" s="41">
         <v>25.407894091228229</v>
       </c>
-      <c r="H64" s="45">
+      <c r="H64" s="41">
         <v>64.143317482721201</v>
       </c>
-      <c r="I64" s="45">
+      <c r="I64" s="41">
         <v>95.257000000000005</v>
       </c>
-      <c r="J64" s="45">
+      <c r="J64" s="41">
         <v>0.29421227026134905</v>
       </c>
-      <c r="K64" s="45">
+      <c r="K64" s="41">
         <v>0.705787729738651</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K65" s="48">
+      <c r="K65" s="44">
         <f>AVERAGE(K5:K64)</f>
         <v>0.70513296293699357</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="46"/>
+      <c r="A79" s="42"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="46"/>
+      <c r="A80" s="42"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="46"/>
+      <c r="A81" s="42"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="46"/>
+      <c r="A82" s="42"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="46"/>
+      <c r="A83" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Paper_results.xlsx
+++ b/Paper_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26837623f5703f51/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{155E4B78-8035-447B-95EE-A94679A36388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974E6351-13DA-47D8-9ED3-95A100456BCE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDF41B0-31DC-43FB-86FE-C634FB4C3224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7172CF4F-AE7D-43D7-B27D-7F468EA79A39}"/>
   </bookViews>
@@ -392,10 +392,10 @@
     <t>l is the length of the horizontal electrode (m).</t>
   </si>
   <si>
-    <t>|Zmed|(Ω) [32]</t>
-  </si>
-  <si>
-    <t>APE_LPM (%) [32]</t>
+    <t>|Zmed|(Ω) [33]</t>
+  </si>
+  <si>
+    <t>APE_LPM (%) [33]</t>
   </si>
 </sst>
 </file>
@@ -1080,48 +1080,48 @@
     <xf numFmtId="2" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,7 +1165,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1219,7 +1219,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1273,7 +1273,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000050C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1327,7 +1327,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000060C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1701,7 +1701,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1744,37 +1744,37 @@
     </row>
     <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:39" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="81" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="85"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="88"/>
     </row>
     <row r="4" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="89" t="s">
@@ -1788,44 +1788,44 @@
       <c r="G4" s="90"/>
       <c r="H4" s="90"/>
       <c r="I4" s="91"/>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="81" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="81" t="s">
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="78" t="s">
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="80"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="82"/>
     </row>
     <row r="5" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
@@ -2692,7 +2692,7 @@
     </row>
     <row r="11" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="Y11" s="73"/>
-      <c r="Z11" s="92"/>
+      <c r="Z11" s="78"/>
       <c r="AA11" s="73"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
@@ -2706,7 +2706,7 @@
         <v>58</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="Z13" s="93"/>
+      <c r="Z13" s="79"/>
       <c r="AA13" s="73"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.35">

--- a/Paper_results.xlsx
+++ b/Paper_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26837623f5703f51/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{929EB4F2-29B5-4A40-B683-0566AF00864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AE7754-F5FD-4FC4-BDD3-293CDC99010E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7172CF4F-AE7D-43D7-B27D-7F468EA79A39}"/>
   </bookViews>
@@ -529,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -850,12 +850,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1061,9 +1087,6 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,6 +1143,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1701,19 +1739,20 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" customWidth="1"/>
     <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
     <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.26953125" bestFit="1" customWidth="1"/>
@@ -1744,90 +1783,90 @@
     </row>
     <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:39" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="86" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="88"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="87"/>
     </row>
     <row r="4" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="84" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="86" t="s">
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="86" t="s">
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="80" t="s">
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="82"/>
-    </row>
-    <row r="5" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="81"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>87</v>
       </c>
@@ -1852,7 +1891,7 @@
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="75" t="s">
         <v>74</v>
       </c>
       <c r="J5" s="55" t="s">
@@ -1867,7 +1906,7 @@
       <c r="M5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="96" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -1974,11 +2013,11 @@
         <f t="shared" ref="H6:H10" si="1">F6^2*PI()*1000^2</f>
         <v>95.033177771091232</v>
       </c>
-      <c r="I6" s="77">
-        <f>82.1828/(2*PI())</f>
-        <v>13.079798857132616</v>
-      </c>
-      <c r="J6" s="74">
+      <c r="I6" s="76">
+        <f>SQRT(((2*PI()*7.88*17.2)+PI()*7.88^2)/(2*PI()))</f>
+        <v>12.906711432429253</v>
+      </c>
+      <c r="J6" s="73">
         <f>(C6/(PI()*A6))*(LN((2*A6)/(SQRT(2*F6*B6)))-1)</f>
         <v>0.81188752564345623</v>
       </c>
@@ -1990,28 +2029,28 @@
         <f>G6/H6*(A6/1000)</f>
         <v>5.4296826866392069E-2</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="94">
         <f>(E6*A6)/(2*PI())*(LN(2*A6/F6)-1)</f>
         <v>6.3599621051759153E-4</v>
       </c>
       <c r="N6" s="9">
         <f>C6/(2*PI()*I6)</f>
-        <v>1.2167996223053972</v>
-      </c>
-      <c r="O6" s="8">
+        <v>1.2331176994629669</v>
+      </c>
+      <c r="O6" s="95">
         <f>C6*D6/N6</f>
-        <v>6.5488186007999992E-9</v>
+        <v>6.462156859373919E-9</v>
       </c>
       <c r="P6" s="10">
         <v>0.7</v>
       </c>
       <c r="Q6" s="54">
         <f>(1/(1/O6+1/K6))*(1-P6)/P6</f>
-        <v>1.6834110124704093E-9</v>
+        <v>1.6699782688998078E-9</v>
       </c>
       <c r="R6" s="16">
         <f>(N6+(1/(1/(2*J6)+1/(2*J6))))*P6/(1-P6)</f>
-        <v>4.7336033452139903</v>
+        <v>4.7716788585816525</v>
       </c>
       <c r="S6" s="22" t="s">
         <v>73</v>
@@ -2048,11 +2087,11 @@
       </c>
       <c r="AB6" s="59">
         <f>N6*(2-P6)</f>
-        <v>1.5818395089970163</v>
+        <v>1.6030530093018571</v>
       </c>
       <c r="AC6" s="57">
         <f>O6/(2-P6)</f>
-        <v>5.0375527698461531E-9</v>
+        <v>4.9708898918260915E-9</v>
       </c>
       <c r="AD6" s="56">
         <f>2*J6*(2-P6)</f>
@@ -2080,19 +2119,19 @@
       </c>
       <c r="AJ6" s="58">
         <f>N6</f>
-        <v>1.2167996223053972</v>
+        <v>1.2331176994629669</v>
       </c>
       <c r="AK6" s="57">
         <f>O6</f>
-        <v>6.5488186007999992E-9</v>
+        <v>6.462156859373919E-9</v>
       </c>
       <c r="AL6" s="58">
         <f>R6</f>
-        <v>4.7336033452139903</v>
+        <v>4.7716788585816525</v>
       </c>
       <c r="AM6" s="61">
         <f>Q6</f>
-        <v>1.6834110124704093E-9</v>
+        <v>1.6699782688998078E-9</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
@@ -2123,11 +2162,11 @@
         <f t="shared" si="1"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="I7" s="77">
-        <f t="shared" ref="I7:I10" si="6">82.1828/(2*PI())</f>
-        <v>13.079798857132616</v>
-      </c>
-      <c r="J7" s="74">
+      <c r="I7" s="76">
+        <f t="shared" ref="I7:I10" si="6">SQRT(((2*PI()*7.88*17.2)+PI()*7.88^2)/(2*PI()))</f>
+        <v>12.906711432429253</v>
+      </c>
+      <c r="J7" s="73">
         <f>(C7/(PI()*A7))*(LN((2*A7)/(SQRT(2*F7*B7)))-1)</f>
         <v>2.4356625769303686</v>
       </c>
@@ -2140,27 +2179,27 @@
         <v>5.4296826866392069E-2</v>
       </c>
       <c r="M7" s="52">
-        <f t="shared" ref="M7:M10" si="7">(E7*A7)/(2*PI())*(LN(2*A7/F7)-1)</f>
+        <f>(E7*A7)/(2*PI())*(LN(2*A7/F7)-1)</f>
         <v>6.3599621051759153E-4</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="97">
         <f>C7/(2*PI()*I7)</f>
-        <v>3.6503988669161918</v>
+        <v>3.6993530983889009</v>
       </c>
       <c r="O7" s="8">
         <f>C7*D7/N7</f>
-        <v>6.5488186007999992E-9</v>
+        <v>6.4621568593739198E-9</v>
       </c>
       <c r="P7" s="10">
         <v>0.7</v>
       </c>
       <c r="Q7" s="54">
-        <f t="shared" ref="Q7:Q10" si="8">(1/(1/O7+1/K7))*(1-P7)/P7</f>
-        <v>1.6834110124704093E-9</v>
+        <f t="shared" ref="Q7:Q10" si="7">(1/(1/O7+1/K7))*(1-P7)/P7</f>
+        <v>1.6699782688998078E-9</v>
       </c>
       <c r="R7" s="16">
-        <f t="shared" ref="R7:R10" si="9">(N7+(1/(1/(2*J7)+1/(2*J7))))*P7/(1-P7)</f>
-        <v>14.20081003564197</v>
+        <f t="shared" ref="R7:R10" si="8">(N7+(1/(1/(2*J7)+1/(2*J7))))*P7/(1-P7)</f>
+        <v>14.315036575744958</v>
       </c>
       <c r="S7" s="22" t="s">
         <v>1</v>
@@ -2192,56 +2231,56 @@
         <v>3.8231000000000002</v>
       </c>
       <c r="AA7" s="23">
-        <f t="shared" ref="AA7:AA10" si="10">ABS((Z7-V7)/V7)</f>
+        <f t="shared" ref="AA7:AA10" si="9">ABS((Z7-V7)/V7)</f>
         <v>4.7012848634822552E-2</v>
       </c>
       <c r="AB7" s="59">
-        <f t="shared" ref="AB7:AB10" si="11">N7*(2-P7)</f>
-        <v>4.7455185269910496</v>
+        <f t="shared" ref="AB7:AB10" si="10">N7*(2-P7)</f>
+        <v>4.8091590279055714</v>
       </c>
       <c r="AC7" s="57">
-        <f t="shared" ref="AC7:AC10" si="12">O7/(2-P7)</f>
-        <v>5.0375527698461531E-9</v>
+        <f t="shared" ref="AC7:AC10" si="11">O7/(2-P7)</f>
+        <v>4.9708898918260923E-9</v>
       </c>
       <c r="AD7" s="56">
-        <f t="shared" ref="AD7:AD10" si="13">2*J7*(2-P7)</f>
+        <f t="shared" ref="AD7:AD10" si="12">2*J7*(2-P7)</f>
         <v>6.3327227000189588</v>
       </c>
       <c r="AE7" s="57">
-        <f t="shared" ref="AE7:AE10" si="14">K7/(4-2*P7)</f>
+        <f t="shared" ref="AE7:AE10" si="13">K7/(4-2*P7)</f>
         <v>3.7749639661197277E-9</v>
       </c>
       <c r="AF7" s="56">
-        <f t="shared" ref="AF7:AF10" si="15">2*J7</f>
+        <f t="shared" ref="AF7:AF10" si="14">2*J7</f>
         <v>4.8713251538607372</v>
       </c>
       <c r="AG7" s="57">
-        <f t="shared" ref="AG7:AG10" si="16">K7/2</f>
+        <f t="shared" ref="AG7:AG10" si="15">K7/2</f>
         <v>4.907453155955646E-9</v>
       </c>
       <c r="AH7" s="68">
-        <f t="shared" ref="AH7:AK10" si="17">L7</f>
+        <f t="shared" ref="AH7:AK10" si="16">L7</f>
         <v>5.4296826866392069E-2</v>
       </c>
       <c r="AI7" s="67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6.3599621051759153E-4</v>
       </c>
       <c r="AJ7" s="58">
-        <f t="shared" si="17"/>
-        <v>3.6503988669161918</v>
+        <f t="shared" si="16"/>
+        <v>3.6993530983889009</v>
       </c>
       <c r="AK7" s="57">
-        <f t="shared" si="17"/>
-        <v>6.5488186007999992E-9</v>
+        <f t="shared" si="16"/>
+        <v>6.4621568593739198E-9</v>
       </c>
       <c r="AL7" s="58">
-        <f t="shared" ref="AL7:AL10" si="18">R7</f>
-        <v>14.20081003564197</v>
+        <f t="shared" ref="AL7:AL10" si="17">R7</f>
+        <v>14.315036575744958</v>
       </c>
       <c r="AM7" s="61">
-        <f t="shared" ref="AM7:AM10" si="19">Q7</f>
-        <v>1.6834110124704093E-9</v>
+        <f t="shared" ref="AM7:AM10" si="18">Q7</f>
+        <v>1.6699782688998078E-9</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
@@ -2272,11 +2311,11 @@
         <f t="shared" si="1"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="76">
         <f t="shared" si="6"/>
-        <v>13.079798857132616</v>
-      </c>
-      <c r="J8" s="74">
+        <v>12.906711432429253</v>
+      </c>
+      <c r="J8" s="73">
         <f>(C8/(PI()*A8))*(LN((2*A8)/(SQRT(2*F8*B8)))-1)</f>
         <v>42.640332846794323</v>
       </c>
@@ -2289,27 +2328,27 @@
         <v>5.4296826866392069E-2</v>
       </c>
       <c r="M8" s="52">
-        <f t="shared" si="7"/>
+        <f>(E8*A8)/(2*PI())*(LN(2*A8/F8)-1)</f>
         <v>6.3599621051759153E-4</v>
       </c>
       <c r="N8" s="9">
         <f>C8/(2*PI()*I8)</f>
-        <v>63.90631616347946</v>
+        <v>64.763341575795025</v>
       </c>
       <c r="O8" s="8">
         <f>C8*D8/N8</f>
-        <v>6.5488186007999992E-9</v>
+        <v>6.462156859373919E-9</v>
       </c>
       <c r="P8" s="10">
         <v>0.7</v>
       </c>
       <c r="Q8" s="54">
+        <f t="shared" si="7"/>
+        <v>1.6699782688998078E-9</v>
+      </c>
+      <c r="R8" s="16">
         <f t="shared" si="8"/>
-        <v>1.6834110124704093E-9</v>
-      </c>
-      <c r="R8" s="16">
-        <f t="shared" si="9"/>
-        <v>248.60884769063878</v>
+        <v>250.6085736527084</v>
       </c>
       <c r="S8" s="22" t="s">
         <v>2</v>
@@ -2341,56 +2380,56 @@
         <v>60.09</v>
       </c>
       <c r="AA8" s="23">
+        <f t="shared" si="9"/>
+        <v>2.7728773357585008E-3</v>
+      </c>
+      <c r="AB8" s="59">
         <f t="shared" si="10"/>
-        <v>2.7728773357585008E-3</v>
-      </c>
-      <c r="AB8" s="59">
+        <v>84.192344048533542</v>
+      </c>
+      <c r="AC8" s="57">
         <f t="shared" si="11"/>
-        <v>83.078211012523298</v>
-      </c>
-      <c r="AC8" s="57">
+        <v>4.9708898918260915E-9</v>
+      </c>
+      <c r="AD8" s="56">
         <f t="shared" si="12"/>
-        <v>5.0375527698461531E-9</v>
-      </c>
-      <c r="AD8" s="56">
+        <v>110.86486540166524</v>
+      </c>
+      <c r="AE8" s="57">
         <f t="shared" si="13"/>
-        <v>110.86486540166524</v>
-      </c>
-      <c r="AE8" s="57">
+        <v>3.7749639661197268E-9</v>
+      </c>
+      <c r="AF8" s="56">
         <f t="shared" si="14"/>
-        <v>3.7749639661197268E-9</v>
-      </c>
-      <c r="AF8" s="56">
+        <v>85.280665693588645</v>
+      </c>
+      <c r="AG8" s="57">
         <f t="shared" si="15"/>
-        <v>85.280665693588645</v>
-      </c>
-      <c r="AG8" s="57">
+        <v>4.9074531559556452E-9</v>
+      </c>
+      <c r="AH8" s="68">
         <f t="shared" si="16"/>
-        <v>4.9074531559556452E-9</v>
-      </c>
-      <c r="AH8" s="68">
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="AI8" s="67">
+        <f t="shared" si="16"/>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="AJ8" s="58">
+        <f t="shared" si="16"/>
+        <v>64.763341575795025</v>
+      </c>
+      <c r="AK8" s="57">
+        <f t="shared" si="16"/>
+        <v>6.462156859373919E-9</v>
+      </c>
+      <c r="AL8" s="58">
         <f t="shared" si="17"/>
-        <v>5.4296826866392069E-2</v>
-      </c>
-      <c r="AI8" s="67">
-        <f t="shared" si="17"/>
-        <v>6.3599621051759153E-4</v>
-      </c>
-      <c r="AJ8" s="58">
-        <f t="shared" si="17"/>
-        <v>63.90631616347946</v>
-      </c>
-      <c r="AK8" s="57">
-        <f t="shared" si="17"/>
-        <v>6.5488186007999992E-9</v>
-      </c>
-      <c r="AL8" s="58">
+        <v>250.6085736527084</v>
+      </c>
+      <c r="AM8" s="61">
         <f t="shared" si="18"/>
-        <v>248.60884769063878</v>
-      </c>
-      <c r="AM8" s="61">
-        <f t="shared" si="19"/>
-        <v>1.6834110124704093E-9</v>
+        <v>1.6699782688998078E-9</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
@@ -2421,11 +2460,11 @@
         <f t="shared" si="1"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="76">
         <f t="shared" si="6"/>
-        <v>13.079798857132616</v>
-      </c>
-      <c r="J9" s="74">
+        <v>12.906711432429253</v>
+      </c>
+      <c r="J9" s="73">
         <f>(C9/(PI()*A9))*(LN((2*A9)/(SQRT(2*F9*B9)))-1)</f>
         <v>83.137282625889924</v>
       </c>
@@ -2438,27 +2477,27 @@
         <v>5.4296826866392069E-2</v>
       </c>
       <c r="M9" s="52">
-        <f t="shared" si="7"/>
+        <f>(E9*A9)/(2*PI())*(LN(2*A9/F9)-1)</f>
         <v>6.3599621051759153E-4</v>
       </c>
       <c r="N9" s="9">
         <f>C9/(2*PI()*I9)</f>
-        <v>124.60028132407268</v>
+        <v>126.27125242500782</v>
       </c>
       <c r="O9" s="8">
         <f>C9*D9/N9</f>
-        <v>6.5488186007999983E-9</v>
+        <v>6.462156859373919E-9</v>
       </c>
       <c r="P9" s="10">
         <v>0.7</v>
       </c>
       <c r="Q9" s="54">
+        <f t="shared" si="7"/>
+        <v>1.6699782688998078E-9</v>
+      </c>
+      <c r="R9" s="16">
         <f t="shared" si="8"/>
-        <v>1.6834110124704086E-9</v>
-      </c>
-      <c r="R9" s="16">
-        <f t="shared" si="9"/>
-        <v>484.72098254991266</v>
+        <v>488.61991511876124</v>
       </c>
       <c r="S9" s="22" t="s">
         <v>3</v>
@@ -2490,56 +2529,56 @@
         <v>117.08</v>
       </c>
       <c r="AA9" s="23">
+        <f t="shared" si="9"/>
+        <v>2.4001774417426081E-3</v>
+      </c>
+      <c r="AB9" s="59">
         <f t="shared" si="10"/>
-        <v>2.4001774417426081E-3</v>
-      </c>
-      <c r="AB9" s="59">
+        <v>164.15262815251018</v>
+      </c>
+      <c r="AC9" s="57">
         <f t="shared" si="11"/>
-        <v>161.9803657212945</v>
-      </c>
-      <c r="AC9" s="57">
+        <v>4.9708898918260915E-9</v>
+      </c>
+      <c r="AD9" s="56">
         <f t="shared" si="12"/>
-        <v>5.0375527698461522E-9</v>
-      </c>
-      <c r="AD9" s="56">
+        <v>216.15693482731382</v>
+      </c>
+      <c r="AE9" s="57">
         <f t="shared" si="13"/>
-        <v>216.15693482731382</v>
-      </c>
-      <c r="AE9" s="57">
+        <v>3.7749639661197268E-9</v>
+      </c>
+      <c r="AF9" s="56">
         <f t="shared" si="14"/>
-        <v>3.7749639661197268E-9</v>
-      </c>
-      <c r="AF9" s="56">
+        <v>166.27456525177985</v>
+      </c>
+      <c r="AG9" s="57">
         <f t="shared" si="15"/>
-        <v>166.27456525177985</v>
-      </c>
-      <c r="AG9" s="57">
+        <v>4.9074531559556452E-9</v>
+      </c>
+      <c r="AH9" s="68">
         <f t="shared" si="16"/>
-        <v>4.9074531559556452E-9</v>
-      </c>
-      <c r="AH9" s="68">
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="AI9" s="67">
+        <f t="shared" si="16"/>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="AJ9" s="58">
+        <f t="shared" si="16"/>
+        <v>126.27125242500782</v>
+      </c>
+      <c r="AK9" s="57">
+        <f t="shared" si="16"/>
+        <v>6.462156859373919E-9</v>
+      </c>
+      <c r="AL9" s="58">
         <f t="shared" si="17"/>
-        <v>5.4296826866392069E-2</v>
-      </c>
-      <c r="AI9" s="67">
-        <f t="shared" si="17"/>
-        <v>6.3599621051759153E-4</v>
-      </c>
-      <c r="AJ9" s="58">
-        <f t="shared" si="17"/>
-        <v>124.60028132407268</v>
-      </c>
-      <c r="AK9" s="57">
-        <f t="shared" si="17"/>
-        <v>6.5488186007999983E-9</v>
-      </c>
-      <c r="AL9" s="58">
+        <v>488.61991511876124</v>
+      </c>
+      <c r="AM9" s="61">
         <f t="shared" si="18"/>
-        <v>484.72098254991266</v>
-      </c>
-      <c r="AM9" s="61">
-        <f t="shared" si="19"/>
-        <v>1.6834110124704086E-9</v>
+        <v>1.6699782688998078E-9</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2570,11 +2609,11 @@
         <f t="shared" si="1"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="93">
         <f t="shared" si="6"/>
-        <v>13.079798857132616</v>
-      </c>
-      <c r="J10" s="75">
+        <v>12.906711432429253</v>
+      </c>
+      <c r="J10" s="74">
         <f>(C10/(PI()*A10))*(LN((2*A10)/(SQRT(2*F10*B10)))-1)</f>
         <v>12.178312884651843</v>
       </c>
@@ -2587,7 +2626,7 @@
         <v>5.4296826866392069E-2</v>
       </c>
       <c r="M10" s="34">
-        <f t="shared" si="7"/>
+        <f>(E10*A10)/(2*PI())*(LN(2*A10/F10)-1)</f>
         <v>6.3599621051759153E-4</v>
       </c>
       <c r="N10" s="17">
@@ -2601,11 +2640,11 @@
         <v>0.7</v>
       </c>
       <c r="Q10" s="34">
+        <f t="shared" si="7"/>
+        <v>3.1296454747220856E-9</v>
+      </c>
+      <c r="R10" s="19">
         <f t="shared" si="8"/>
-        <v>3.1296454747220856E-9</v>
-      </c>
-      <c r="R10" s="19">
-        <f t="shared" si="9"/>
         <v>38.19250485891353</v>
       </c>
       <c r="S10" s="24" t="s">
@@ -2638,76 +2677,76 @@
         <v>5.91</v>
       </c>
       <c r="AA10" s="27">
+        <f t="shared" si="9"/>
+        <v>9.8764790298905725E-2</v>
+      </c>
+      <c r="AB10" s="62">
         <f t="shared" si="10"/>
-        <v>9.8764790298905725E-2</v>
-      </c>
-      <c r="AB10" s="62">
+        <v>5.446874528490147</v>
+      </c>
+      <c r="AC10" s="63">
         <f t="shared" si="11"/>
-        <v>5.446874528490147</v>
-      </c>
-      <c r="AC10" s="63">
+        <v>2.1944511366068309E-8</v>
+      </c>
+      <c r="AD10" s="64">
         <f t="shared" si="12"/>
-        <v>2.1944511366068309E-8</v>
-      </c>
-      <c r="AD10" s="64">
+        <v>31.663613500094794</v>
+      </c>
+      <c r="AE10" s="63">
         <f t="shared" si="13"/>
-        <v>31.663613500094794</v>
-      </c>
-      <c r="AE10" s="63">
+        <v>3.7749639661197277E-9</v>
+      </c>
+      <c r="AF10" s="64">
         <f t="shared" si="14"/>
-        <v>3.7749639661197277E-9</v>
-      </c>
-      <c r="AF10" s="64">
+        <v>24.356625769303687</v>
+      </c>
+      <c r="AG10" s="63">
         <f t="shared" si="15"/>
-        <v>24.356625769303687</v>
-      </c>
-      <c r="AG10" s="63">
+        <v>4.907453155955646E-9</v>
+      </c>
+      <c r="AH10" s="70">
         <f t="shared" si="16"/>
-        <v>4.907453155955646E-9</v>
-      </c>
-      <c r="AH10" s="70">
+        <v>5.4296826866392069E-2</v>
+      </c>
+      <c r="AI10" s="69">
+        <f t="shared" si="16"/>
+        <v>6.3599621051759153E-4</v>
+      </c>
+      <c r="AJ10" s="65">
+        <f t="shared" si="16"/>
+        <v>4.1899034834539588</v>
+      </c>
+      <c r="AK10" s="63">
+        <f t="shared" si="16"/>
+        <v>2.8527864775888803E-8</v>
+      </c>
+      <c r="AL10" s="65">
         <f t="shared" si="17"/>
-        <v>5.4296826866392069E-2</v>
-      </c>
-      <c r="AI10" s="69">
-        <f t="shared" si="17"/>
-        <v>6.3599621051759153E-4</v>
-      </c>
-      <c r="AJ10" s="65">
-        <f t="shared" si="17"/>
-        <v>4.1899034834539588</v>
-      </c>
-      <c r="AK10" s="63">
-        <f t="shared" si="17"/>
-        <v>2.8527864775888803E-8</v>
-      </c>
-      <c r="AL10" s="65">
+        <v>38.19250485891353</v>
+      </c>
+      <c r="AM10" s="66">
         <f t="shared" si="18"/>
-        <v>38.19250485891353</v>
-      </c>
-      <c r="AM10" s="66">
-        <f t="shared" si="19"/>
         <v>3.1296454747220856E-9</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="73"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="72"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="S12" s="2"/>
-      <c r="Y12" s="73"/>
+      <c r="Y12" s="72"/>
       <c r="Z12"/>
-      <c r="AA12" s="73"/>
+      <c r="AA12" s="72"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="73"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="72"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -2720,7 +2759,7 @@
       <c r="A15" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="71"/>
       <c r="S15" s="2"/>
       <c r="Z15"/>
       <c r="AA15"/>
@@ -2737,7 +2776,7 @@
         <v>51</v>
       </c>
       <c r="S17" s="2"/>
-      <c r="Z17" s="73"/>
+      <c r="Z17" s="72"/>
       <c r="AA17"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
@@ -2759,7 +2798,7 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="Z20" s="73"/>
+      <c r="Z20" s="72"/>
       <c r="AA20"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">

--- a/Paper_results.xlsx
+++ b/Paper_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26837623f5703f51/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AE7754-F5FD-4FC4-BDD3-293CDC99010E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{B0ACFC6D-58FA-4795-813B-4356ECC6D9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF295EE-80A7-4C69-B715-AB7FB9BCF7BD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7172CF4F-AE7D-43D7-B27D-7F468EA79A39}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Section 3 Results Review" sheetId="4" r:id="rId1"/>
     <sheet name="Section 4 Results" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>pcu(Ω/mm².km)</t>
   </si>
@@ -293,45 +296,6 @@
     <t>Results obtained by computer simulation of the case study in COMSOL Multiphisics - Stationary Regime</t>
   </si>
   <si>
-    <t>Rc</t>
-  </si>
-  <si>
-    <t>Cc</t>
-  </si>
-  <si>
-    <t>Cf / (2-k)</t>
-  </si>
-  <si>
-    <t>Rf (2-k)</t>
-  </si>
-  <si>
-    <t>2.Rp (2-k)</t>
-  </si>
-  <si>
-    <t>Cp /(4-2k)</t>
-  </si>
-  <si>
-    <t>2.Rp</t>
-  </si>
-  <si>
-    <t>Cp/ 2</t>
-  </si>
-  <si>
-    <t>Rf</t>
-  </si>
-  <si>
-    <t>Cf</t>
-  </si>
-  <si>
-    <t>ATP input parameters</t>
-  </si>
-  <si>
-    <t>Rs</t>
-  </si>
-  <si>
-    <t>Lp</t>
-  </si>
-  <si>
     <t>1,1839069021425247+0,4298764706375344i</t>
   </si>
   <si>
@@ -386,16 +350,28 @@
     <t>l is the length of the horizontal electrode (m).</t>
   </si>
   <si>
-    <t>|Zmed|(Ω) [33]</t>
-  </si>
-  <si>
-    <t>APE_LPM (%) [33]</t>
-  </si>
-  <si>
     <t>Ls (H)</t>
   </si>
   <si>
     <t>Ls is the horizontal electrode self-indutance (H)</t>
+  </si>
+  <si>
+    <t>Distributed parameter model using ATP (10 cell)</t>
+  </si>
+  <si>
+    <t>APE_LPM (%) [Leal et al. 2022]</t>
+  </si>
+  <si>
+    <t>|Zmed|(Ω) [Leal et al. 2022]</t>
+  </si>
+  <si>
+    <t>|Zmed|(Ω) [Nappu et al. 2022]</t>
+  </si>
+  <si>
+    <t>APE_DPM (%) [Nappu et al. 2022]</t>
+  </si>
+  <si>
+    <t>Distributed parameter model using ATP (100  cell)</t>
   </si>
 </sst>
 </file>
@@ -780,51 +756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -874,6 +805,43 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -881,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1042,51 +1010,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1094,24 +1017,37 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,12 +1060,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1145,19 +1075,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1399,6 +1337,97 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Planilha1"/>
+      <sheetName val="Planilha3"/>
+      <sheetName val="Planilha2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>100</v>
+          </cell>
+          <cell r="E2">
+            <v>75.350376279854899</v>
+          </cell>
+          <cell r="F2">
+            <v>56.25</v>
+          </cell>
+          <cell r="G2">
+            <v>10.27</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>300</v>
+          </cell>
+          <cell r="E3">
+            <v>40.232515273851298</v>
+          </cell>
+          <cell r="F3">
+            <v>42.84</v>
+          </cell>
+          <cell r="G3">
+            <v>4.7</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>5252</v>
+          </cell>
+          <cell r="E4">
+            <v>29.651240449275701</v>
+          </cell>
+          <cell r="F4">
+            <v>26.96</v>
+          </cell>
+          <cell r="G4">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>10240</v>
+          </cell>
+          <cell r="E5">
+            <v>29.6065415622916</v>
+          </cell>
+          <cell r="F5">
+            <v>28.07</v>
+          </cell>
+          <cell r="G5">
+            <v>0.24</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>5252/300</v>
+          </cell>
+          <cell r="E6">
+            <v>21.042606492725099</v>
+          </cell>
+          <cell r="F6">
+            <v>24.08</v>
+          </cell>
+          <cell r="G6">
+            <v>9.8800000000000008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1436,6 +1465,10 @@
 </file>
 
 <file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1736,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD07FEA-85F8-457C-996B-0DAB67F5A792}">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1767,111 +1800,114 @@
     <col min="21" max="21" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.90625" customWidth="1"/>
-    <col min="24" max="24" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="39" width="10.81640625" customWidth="1"/>
+    <col min="28" max="28" width="27.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.36328125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z1"/>
       <c r="AA1"/>
-    </row>
-    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:39" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="82" t="s">
+      <c r="AB1"/>
+      <c r="AC1"/>
+    </row>
+    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:31" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="87"/>
-    </row>
-    <row r="4" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="88" t="s">
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="85"/>
+    </row>
+    <row r="4" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="83" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="85" t="s">
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="85" t="s">
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="92"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="78"/>
       <c r="AB4" s="79" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
+      <c r="AD4" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="81"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>49</v>
@@ -1880,10 +1916,10 @@
         <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>0</v>
@@ -1891,22 +1927,22 @@
       <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="75" t="s">
-        <v>74</v>
+      <c r="I5" s="60" t="s">
+        <v>61</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="67" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -1937,55 +1973,31 @@
         <v>22</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB5" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="AC5" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD5" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE5" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF5" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG5" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH5" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI5" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ5" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK5" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL5" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM5" s="60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AB5" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD5" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>300</v>
       </c>
@@ -2013,11 +2025,11 @@
         <f t="shared" ref="H6:H10" si="1">F6^2*PI()*1000^2</f>
         <v>95.033177771091232</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="61">
         <f>SQRT(((2*PI()*7.88*17.2)+PI()*7.88^2)/(2*PI()))</f>
         <v>12.906711432429253</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="58">
         <f>(C6/(PI()*A6))*(LN((2*A6)/(SQRT(2*F6*B6)))-1)</f>
         <v>0.81188752564345623</v>
       </c>
@@ -2029,7 +2041,7 @@
         <f>G6/H6*(A6/1000)</f>
         <v>5.4296826866392069E-2</v>
       </c>
-      <c r="M6" s="94">
+      <c r="M6" s="65">
         <f>(E6*A6)/(2*PI())*(LN(2*A6/F6)-1)</f>
         <v>6.3599621051759153E-4</v>
       </c>
@@ -2037,7 +2049,7 @@
         <f>C6/(2*PI()*I6)</f>
         <v>1.2331176994629669</v>
       </c>
-      <c r="O6" s="95">
+      <c r="O6" s="66">
         <f>C6*D6/N6</f>
         <v>6.462156859373919E-9</v>
       </c>
@@ -2053,7 +2065,7 @@
         <v>4.7716788585816525</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T6" s="13">
         <f t="shared" ref="T6:T10" si="2">IMREAL(S6)</f>
@@ -2064,7 +2076,7 @@
         <v>0.42987647063753398</v>
       </c>
       <c r="V6" s="13">
-        <f t="shared" ref="V6:V10" si="4">IMABS(S6)</f>
+        <f>IMABS(S6)</f>
         <v>1.2595353639134079</v>
       </c>
       <c r="W6" s="36">
@@ -2081,60 +2093,26 @@
       <c r="Z6" s="13">
         <v>1.3889</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AA6" s="86">
         <f>ABS((Z6-V6)/V6)</f>
         <v>0.10270822066055607</v>
       </c>
-      <c r="AB6" s="59">
-        <f>N6*(2-P6)</f>
-        <v>1.6030530093018571</v>
-      </c>
-      <c r="AC6" s="57">
-        <f>O6/(2-P6)</f>
-        <v>4.9708898918260915E-9</v>
-      </c>
-      <c r="AD6" s="56">
-        <f>2*J6*(2-P6)</f>
-        <v>2.1109075666729864</v>
-      </c>
-      <c r="AE6" s="57">
-        <f>K6/(4-2*P6)</f>
-        <v>3.7749639661197268E-9</v>
-      </c>
-      <c r="AF6" s="56">
-        <f>2*J6</f>
-        <v>1.6237750512869125</v>
-      </c>
-      <c r="AG6" s="57">
-        <f>K6/2</f>
-        <v>4.9074531559556452E-9</v>
-      </c>
-      <c r="AH6" s="68">
-        <f>L6</f>
-        <v>5.4296826866392069E-2</v>
-      </c>
-      <c r="AI6" s="67">
-        <f>M6</f>
-        <v>6.3599621051759153E-4</v>
-      </c>
-      <c r="AJ6" s="58">
-        <f>N6</f>
-        <v>1.2331176994629669</v>
-      </c>
-      <c r="AK6" s="57">
-        <f>O6</f>
-        <v>6.462156859373919E-9</v>
-      </c>
-      <c r="AL6" s="58">
-        <f>R6</f>
-        <v>4.7716788585816525</v>
-      </c>
-      <c r="AM6" s="61">
-        <f>Q6</f>
-        <v>1.6699782688998078E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AB6" s="39">
+        <v>2.2086000000000001</v>
+      </c>
+      <c r="AC6" s="23">
+        <f>(AB6-V6)/V6</f>
+        <v>0.75350376279854869</v>
+      </c>
+      <c r="AD6" s="39">
+        <v>2.2048999999999999</v>
+      </c>
+      <c r="AE6" s="23">
+        <f>(AD6-V6)/V6</f>
+        <v>0.75056617159943828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>300</v>
       </c>
@@ -2145,7 +2123,7 @@
         <v>300</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" ref="D7:D10" si="5">8.854*10^-12*9</f>
+        <f t="shared" ref="D7:D10" si="4">8.854*10^-12*9</f>
         <v>7.968599999999999E-11</v>
       </c>
       <c r="E7" s="8">
@@ -2162,11 +2140,11 @@
         <f t="shared" si="1"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="I7" s="76">
-        <f t="shared" ref="I7:I10" si="6">SQRT(((2*PI()*7.88*17.2)+PI()*7.88^2)/(2*PI()))</f>
+      <c r="I7" s="61">
+        <f t="shared" ref="I7:I10" si="5">SQRT(((2*PI()*7.88*17.2)+PI()*7.88^2)/(2*PI()))</f>
         <v>12.906711432429253</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="58">
         <f>(C7/(PI()*A7))*(LN((2*A7)/(SQRT(2*F7*B7)))-1)</f>
         <v>2.4356625769303686</v>
       </c>
@@ -2182,7 +2160,7 @@
         <f>(E7*A7)/(2*PI())*(LN(2*A7/F7)-1)</f>
         <v>6.3599621051759153E-4</v>
       </c>
-      <c r="N7" s="97">
+      <c r="N7" s="68">
         <f>C7/(2*PI()*I7)</f>
         <v>3.6993530983889009</v>
       </c>
@@ -2194,11 +2172,11 @@
         <v>0.7</v>
       </c>
       <c r="Q7" s="54">
-        <f t="shared" ref="Q7:Q10" si="7">(1/(1/O7+1/K7))*(1-P7)/P7</f>
+        <f t="shared" ref="Q7:Q10" si="6">(1/(1/O7+1/K7))*(1-P7)/P7</f>
         <v>1.6699782688998078E-9</v>
       </c>
       <c r="R7" s="16">
-        <f t="shared" ref="R7:R10" si="8">(N7+(1/(1/(2*J7)+1/(2*J7))))*P7/(1-P7)</f>
+        <f t="shared" ref="R7:R10" si="7">(N7+(1/(1/(2*J7)+1/(2*J7))))*P7/(1-P7)</f>
         <v>14.315036575744958</v>
       </c>
       <c r="S7" s="22" t="s">
@@ -2213,7 +2191,7 @@
         <v>0.70679465909241701</v>
       </c>
       <c r="V7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="V7:V10" si="8">IMABS(S7)</f>
         <v>3.6514356103507781</v>
       </c>
       <c r="W7" s="36">
@@ -2230,60 +2208,26 @@
       <c r="Z7" s="13">
         <v>3.8231000000000002</v>
       </c>
-      <c r="AA7" s="23">
+      <c r="AA7" s="86">
         <f t="shared" ref="AA7:AA10" si="9">ABS((Z7-V7)/V7)</f>
         <v>4.7012848634822552E-2</v>
       </c>
-      <c r="AB7" s="59">
-        <f t="shared" ref="AB7:AB10" si="10">N7*(2-P7)</f>
-        <v>4.8091590279055714</v>
-      </c>
-      <c r="AC7" s="57">
-        <f t="shared" ref="AC7:AC10" si="11">O7/(2-P7)</f>
-        <v>4.9708898918260923E-9</v>
-      </c>
-      <c r="AD7" s="56">
-        <f t="shared" ref="AD7:AD10" si="12">2*J7*(2-P7)</f>
-        <v>6.3327227000189588</v>
-      </c>
-      <c r="AE7" s="57">
-        <f t="shared" ref="AE7:AE10" si="13">K7/(4-2*P7)</f>
-        <v>3.7749639661197277E-9</v>
-      </c>
-      <c r="AF7" s="56">
-        <f t="shared" ref="AF7:AF10" si="14">2*J7</f>
-        <v>4.8713251538607372</v>
-      </c>
-      <c r="AG7" s="57">
-        <f t="shared" ref="AG7:AG10" si="15">K7/2</f>
-        <v>4.907453155955646E-9</v>
-      </c>
-      <c r="AH7" s="68">
-        <f t="shared" ref="AH7:AK10" si="16">L7</f>
-        <v>5.4296826866392069E-2</v>
-      </c>
-      <c r="AI7" s="67">
-        <f t="shared" si="16"/>
-        <v>6.3599621051759153E-4</v>
-      </c>
-      <c r="AJ7" s="58">
-        <f t="shared" si="16"/>
-        <v>3.6993530983889009</v>
-      </c>
-      <c r="AK7" s="57">
-        <f t="shared" si="16"/>
-        <v>6.4621568593739198E-9</v>
-      </c>
-      <c r="AL7" s="58">
-        <f t="shared" ref="AL7:AL10" si="17">R7</f>
-        <v>14.315036575744958</v>
-      </c>
-      <c r="AM7" s="61">
-        <f t="shared" ref="AM7:AM10" si="18">Q7</f>
-        <v>1.6699782688998078E-9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AB7" s="39">
+        <v>5.1204999999999998</v>
+      </c>
+      <c r="AC7" s="23">
+        <f t="shared" ref="AC7:AC10" si="10">(AB7-V7)/V7</f>
+        <v>0.40232515273851283</v>
+      </c>
+      <c r="AD7" s="39">
+        <v>5.1166</v>
+      </c>
+      <c r="AE7" s="23">
+        <f t="shared" ref="AE7:AE10" si="11">(AD7-V7)/V7</f>
+        <v>0.401257079680085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>300</v>
       </c>
@@ -2294,7 +2238,7 @@
         <v>5252</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.968599999999999E-11</v>
       </c>
       <c r="E8" s="8">
@@ -2311,11 +2255,11 @@
         <f t="shared" si="1"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="I8" s="76">
-        <f t="shared" si="6"/>
+      <c r="I8" s="61">
+        <f t="shared" si="5"/>
         <v>12.906711432429253</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="58">
         <f>(C8/(PI()*A8))*(LN((2*A8)/(SQRT(2*F8*B8)))-1)</f>
         <v>42.640332846794323</v>
       </c>
@@ -2343,11 +2287,11 @@
         <v>0.7</v>
       </c>
       <c r="Q8" s="54">
+        <f t="shared" si="6"/>
+        <v>1.6699782688998078E-9</v>
+      </c>
+      <c r="R8" s="16">
         <f t="shared" si="7"/>
-        <v>1.6699782688998078E-9</v>
-      </c>
-      <c r="R8" s="16">
-        <f t="shared" si="8"/>
         <v>250.6085736527084</v>
       </c>
       <c r="S8" s="22" t="s">
@@ -2362,7 +2306,7 @@
         <v>0.744347052630002</v>
       </c>
       <c r="V8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.923838546223529</v>
       </c>
       <c r="W8" s="36">
@@ -2379,60 +2323,26 @@
       <c r="Z8" s="13">
         <v>60.09</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AA8" s="86">
         <f t="shared" si="9"/>
         <v>2.7728773357585008E-3</v>
       </c>
-      <c r="AB8" s="59">
+      <c r="AB8" s="39">
+        <v>77.691999999999993</v>
+      </c>
+      <c r="AC8" s="23">
         <f t="shared" si="10"/>
-        <v>84.192344048533542</v>
-      </c>
-      <c r="AC8" s="57">
+        <v>0.29651240449275651</v>
+      </c>
+      <c r="AD8" s="39">
+        <v>77.691000000000003</v>
+      </c>
+      <c r="AE8" s="23">
         <f t="shared" si="11"/>
-        <v>4.9708898918260915E-9</v>
-      </c>
-      <c r="AD8" s="56">
-        <f t="shared" si="12"/>
-        <v>110.86486540166524</v>
-      </c>
-      <c r="AE8" s="57">
-        <f t="shared" si="13"/>
-        <v>3.7749639661197268E-9</v>
-      </c>
-      <c r="AF8" s="56">
-        <f t="shared" si="14"/>
-        <v>85.280665693588645</v>
-      </c>
-      <c r="AG8" s="57">
-        <f t="shared" si="15"/>
-        <v>4.9074531559556452E-9</v>
-      </c>
-      <c r="AH8" s="68">
-        <f t="shared" si="16"/>
-        <v>5.4296826866392069E-2</v>
-      </c>
-      <c r="AI8" s="67">
-        <f t="shared" si="16"/>
-        <v>6.3599621051759153E-4</v>
-      </c>
-      <c r="AJ8" s="58">
-        <f t="shared" si="16"/>
-        <v>64.763341575795025</v>
-      </c>
-      <c r="AK8" s="57">
-        <f t="shared" si="16"/>
-        <v>6.462156859373919E-9</v>
-      </c>
-      <c r="AL8" s="58">
-        <f t="shared" si="17"/>
-        <v>250.6085736527084</v>
-      </c>
-      <c r="AM8" s="61">
-        <f t="shared" si="18"/>
-        <v>1.6699782688998078E-9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+        <v>0.29649571664324198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>300</v>
       </c>
@@ -2443,7 +2353,7 @@
         <v>10240</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.968599999999999E-11</v>
       </c>
       <c r="E9" s="8">
@@ -2460,11 +2370,11 @@
         <f t="shared" si="1"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="I9" s="76">
-        <f t="shared" si="6"/>
+      <c r="I9" s="61">
+        <f t="shared" si="5"/>
         <v>12.906711432429253</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="58">
         <f>(C9/(PI()*A9))*(LN((2*A9)/(SQRT(2*F9*B9)))-1)</f>
         <v>83.137282625889924</v>
       </c>
@@ -2492,11 +2402,11 @@
         <v>0.7</v>
       </c>
       <c r="Q9" s="54">
+        <f t="shared" si="6"/>
+        <v>1.6699782688998078E-9</v>
+      </c>
+      <c r="R9" s="16">
         <f t="shared" si="7"/>
-        <v>1.6699782688998078E-9</v>
-      </c>
-      <c r="R9" s="16">
-        <f t="shared" si="8"/>
         <v>488.61991511876124</v>
       </c>
       <c r="S9" s="22" t="s">
@@ -2511,7 +2421,7 @@
         <v>0.63191378016472499</v>
       </c>
       <c r="V9" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>116.79966009064722</v>
       </c>
       <c r="W9" s="36">
@@ -2528,60 +2438,26 @@
       <c r="Z9" s="13">
         <v>117.08</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA9" s="86">
         <f t="shared" si="9"/>
         <v>2.4001774417426081E-3</v>
       </c>
-      <c r="AB9" s="59">
+      <c r="AB9" s="39">
+        <v>151.38</v>
+      </c>
+      <c r="AC9" s="23">
         <f t="shared" si="10"/>
-        <v>164.15262815251018</v>
-      </c>
-      <c r="AC9" s="57">
+        <v>0.29606541562291588</v>
+      </c>
+      <c r="AD9" s="39">
+        <v>151.38</v>
+      </c>
+      <c r="AE9" s="23">
         <f t="shared" si="11"/>
-        <v>4.9708898918260915E-9</v>
-      </c>
-      <c r="AD9" s="56">
-        <f t="shared" si="12"/>
-        <v>216.15693482731382</v>
-      </c>
-      <c r="AE9" s="57">
-        <f t="shared" si="13"/>
-        <v>3.7749639661197268E-9</v>
-      </c>
-      <c r="AF9" s="56">
-        <f t="shared" si="14"/>
-        <v>166.27456525177985</v>
-      </c>
-      <c r="AG9" s="57">
-        <f t="shared" si="15"/>
-        <v>4.9074531559556452E-9</v>
-      </c>
-      <c r="AH9" s="68">
-        <f t="shared" si="16"/>
-        <v>5.4296826866392069E-2</v>
-      </c>
-      <c r="AI9" s="67">
-        <f t="shared" si="16"/>
-        <v>6.3599621051759153E-4</v>
-      </c>
-      <c r="AJ9" s="58">
-        <f t="shared" si="16"/>
-        <v>126.27125242500782</v>
-      </c>
-      <c r="AK9" s="57">
-        <f t="shared" si="16"/>
-        <v>6.462156859373919E-9</v>
-      </c>
-      <c r="AL9" s="58">
-        <f t="shared" si="17"/>
-        <v>488.61991511876124</v>
-      </c>
-      <c r="AM9" s="61">
-        <f t="shared" si="18"/>
-        <v>1.6699782688998078E-9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.29606541562291588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="30">
         <v>300</v>
       </c>
@@ -2592,7 +2468,7 @@
         <v>1500</v>
       </c>
       <c r="D10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.968599999999999E-11</v>
       </c>
       <c r="E10" s="34">
@@ -2609,11 +2485,11 @@
         <f t="shared" si="1"/>
         <v>95.033177771091232</v>
       </c>
-      <c r="I10" s="93">
-        <f t="shared" si="6"/>
+      <c r="I10" s="64">
+        <f t="shared" si="5"/>
         <v>12.906711432429253</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="59">
         <f>(C10/(PI()*A10))*(LN((2*A10)/(SQRT(2*F10*B10)))-1)</f>
         <v>12.178312884651843</v>
       </c>
@@ -2640,15 +2516,15 @@
         <v>0.7</v>
       </c>
       <c r="Q10" s="34">
+        <f t="shared" si="6"/>
+        <v>3.1296454747220856E-9</v>
+      </c>
+      <c r="R10" s="19">
         <f t="shared" si="7"/>
-        <v>3.1296454747220856E-9</v>
-      </c>
-      <c r="R10" s="19">
-        <f t="shared" si="8"/>
         <v>38.19250485891353</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="T10" s="25">
         <f t="shared" si="2"/>
@@ -2659,7 +2535,7 @@
         <v>1.7464794141464</v>
       </c>
       <c r="V10" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.3787671867354394</v>
       </c>
       <c r="W10" s="37">
@@ -2676,145 +2552,133 @@
       <c r="Z10" s="25">
         <v>5.91</v>
       </c>
-      <c r="AA10" s="27">
+      <c r="AA10" s="87">
         <f t="shared" si="9"/>
         <v>9.8764790298905725E-2</v>
       </c>
-      <c r="AB10" s="62">
+      <c r="AB10" s="40">
+        <v>6.5106000000000002</v>
+      </c>
+      <c r="AC10" s="27">
         <f t="shared" si="10"/>
-        <v>5.446874528490147</v>
-      </c>
-      <c r="AC10" s="63">
+        <v>0.21042606492725136</v>
+      </c>
+      <c r="AD10" s="40">
+        <v>6.5087000000000002</v>
+      </c>
+      <c r="AE10" s="27">
         <f t="shared" si="11"/>
-        <v>2.1944511366068309E-8</v>
-      </c>
-      <c r="AD10" s="64">
-        <f t="shared" si="12"/>
-        <v>31.663613500094794</v>
-      </c>
-      <c r="AE10" s="63">
-        <f t="shared" si="13"/>
-        <v>3.7749639661197277E-9</v>
-      </c>
-      <c r="AF10" s="64">
-        <f t="shared" si="14"/>
-        <v>24.356625769303687</v>
-      </c>
-      <c r="AG10" s="63">
-        <f t="shared" si="15"/>
-        <v>4.907453155955646E-9</v>
-      </c>
-      <c r="AH10" s="70">
-        <f t="shared" si="16"/>
-        <v>5.4296826866392069E-2</v>
-      </c>
-      <c r="AI10" s="69">
-        <f t="shared" si="16"/>
-        <v>6.3599621051759153E-4</v>
-      </c>
-      <c r="AJ10" s="65">
-        <f t="shared" si="16"/>
-        <v>4.1899034834539588</v>
-      </c>
-      <c r="AK10" s="63">
-        <f t="shared" si="16"/>
-        <v>2.8527864775888803E-8</v>
-      </c>
-      <c r="AL10" s="65">
-        <f t="shared" si="17"/>
-        <v>38.19250485891353</v>
-      </c>
-      <c r="AM10" s="66">
-        <f t="shared" si="18"/>
-        <v>3.1296454747220856E-9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="72"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+        <v>0.21007282413172379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="69"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="S12" s="2"/>
-      <c r="Y12" s="72"/>
+      <c r="Y12" s="57"/>
       <c r="Z12"/>
-      <c r="AA12" s="72"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="72"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="Z14"/>
       <c r="AA14"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AB14"/>
+      <c r="AC14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="71"/>
+        <v>72</v>
+      </c>
+      <c r="I15" s="56"/>
       <c r="S15" s="2"/>
       <c r="Z15"/>
       <c r="AA15"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="AB15"/>
+      <c r="AC15"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
       <c r="Z16"/>
       <c r="AA16"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB16"/>
+      <c r="AC16"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="S17" s="2"/>
-      <c r="Z17" s="72"/>
+      <c r="Z17" s="57"/>
       <c r="AA17"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB17"/>
+      <c r="AC17"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="S18" s="2"/>
       <c r="Z18"/>
       <c r="AA18"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB18"/>
+      <c r="AC18"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="Z19"/>
       <c r="AA19"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB19"/>
+      <c r="AC19"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="Z20" s="72"/>
+      <c r="Z20" s="57"/>
       <c r="AA20"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB20"/>
+      <c r="AC20"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="S21" s="2"/>
       <c r="Z21"/>
       <c r="AA21"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB21"/>
+      <c r="AC21"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2822,8 +2686,10 @@
       <c r="V23" s="2"/>
       <c r="Z23"/>
       <c r="AA23"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB23"/>
+      <c r="AC23"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2831,49 +2697,53 @@
       <c r="V24" s="2"/>
       <c r="Z24"/>
       <c r="AA24"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB24"/>
+      <c r="AC24"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="Z25"/>
       <c r="AA25"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB25"/>
+      <c r="AC25"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
@@ -2885,14 +2755,15 @@
       <c r="A34" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AB4:AM4"/>
+  <mergeCells count="8">
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="S3:AE3"/>
     <mergeCell ref="A3:R3"/>
-    <mergeCell ref="S3:AA3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="J4:R4"/>
     <mergeCell ref="S4:W4"/>
     <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3038,9 +2909,9 @@
     <row r="3" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="47" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>4</v>
@@ -5186,7 +5057,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -5231,7 +5102,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
